--- a/TablaPredictivaV1.xlsx
+++ b/TablaPredictivaV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por_s\OneDrive\Documentos\NetBeansProjects\EditorPlanet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C29ADE-091C-4B14-8258-EE77D668C06A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8F7CE-01C6-4794-B83D-D11248E33198}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{57810E6E-0A21-499C-91E2-287DBF5E8AC4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="378">
   <si>
     <t>$</t>
   </si>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB6E7C-481F-445C-A027-9F2C15CEC2C1}">
   <dimension ref="A1:CN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CD10" sqref="CD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2688,9 @@
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
       <c r="CC9" s="7"/>
-      <c r="CD9" s="7"/>
+      <c r="CD9" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="CE9" s="7"/>
       <c r="CF9" s="7"/>
       <c r="CG9" s="7"/>
@@ -14919,12 +14921,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8297B1F9084F346B69E2C897C07EDF5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02434e8a07a709289c4bff34b43edbc0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38493f2c-75c3-4eda-bd7e-b1289f87ac22" xmlns:ns4="8d622b19-33c5-45fd-8838-b7a4bba5caad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e74bec05e75104cafe7a77ea3eaf635" ns3:_="" ns4:_="">
     <xsd:import namespace="38493f2c-75c3-4eda-bd7e-b1289f87ac22"/>
@@ -15141,6 +15137,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15151,15 +15153,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09F71C4-1038-47FB-A486-A3D57E27E01E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9ACBCA-23EC-4DDF-B782-DBF637EF338B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15178,6 +15171,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09F71C4-1038-47FB-A486-A3D57E27E01E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024B8F3A-8B0A-453D-B8D4-B07A028D6BC6}">
   <ds:schemaRefs>

--- a/TablaPredictivaV1.xlsx
+++ b/TablaPredictivaV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por_s\OneDrive\Documentos\NetBeansProjects\EditorPlanet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8F7CE-01C6-4794-B83D-D11248E33198}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AC7BCA-8B29-45FB-A051-AD322958E7CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{57810E6E-0A21-499C-91E2-287DBF5E8AC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57810E6E-0A21-499C-91E2-287DBF5E8AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="379">
   <si>
     <t>$</t>
   </si>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>256</t>
+  </si>
+  <si>
+    <t>134</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB6E7C-481F-445C-A027-9F2C15CEC2C1}">
   <dimension ref="A1:CN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CD10" sqref="CD10"/>
+    <sheetView tabSelected="1" topLeftCell="AU55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU67" sqref="AU67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8750,7 +8753,7 @@
         <v>198</v>
       </c>
       <c r="AU66" s="5" t="s">
-        <v>199</v>
+        <v>378</v>
       </c>
       <c r="AV66" s="5"/>
       <c r="AW66" s="5"/>
@@ -14921,6 +14924,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8297B1F9084F346B69E2C897C07EDF5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02434e8a07a709289c4bff34b43edbc0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38493f2c-75c3-4eda-bd7e-b1289f87ac22" xmlns:ns4="8d622b19-33c5-45fd-8838-b7a4bba5caad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e74bec05e75104cafe7a77ea3eaf635" ns3:_="" ns4:_="">
     <xsd:import namespace="38493f2c-75c3-4eda-bd7e-b1289f87ac22"/>
@@ -15137,12 +15146,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15153,6 +15156,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09F71C4-1038-47FB-A486-A3D57E27E01E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9ACBCA-23EC-4DDF-B782-DBF637EF338B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15171,15 +15183,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09F71C4-1038-47FB-A486-A3D57E27E01E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024B8F3A-8B0A-453D-B8D4-B07A028D6BC6}">
   <ds:schemaRefs>

--- a/TablaPredictivaV1.xlsx
+++ b/TablaPredictivaV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por_s\OneDrive\Documentos\NetBeansProjects\EditorPlanet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192571E7-8728-4B08-A689-C926C80035B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30378A-F985-43F0-91C0-3FF374A78A1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{57810E6E-0A21-499C-91E2-287DBF5E8AC4}"/>
   </bookViews>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB6E7C-481F-445C-A027-9F2C15CEC2C1}">
   <dimension ref="A1:CN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY116" sqref="AY116"/>
+    <sheetView tabSelected="1" topLeftCell="I94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN109" sqref="AN109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29475,10 +29475,10 @@
         <v>0</v>
       </c>
       <c r="AM109" s="6">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="AN109" s="6">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="AO109" s="6">
         <v>0</v>
@@ -32792,9 +32792,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33015,19 +33018,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09F71C4-1038-47FB-A486-A3D57E27E01E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024B8F3A-8B0A-453D-B8D4-B07A028D6BC6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33052,9 +33051,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024B8F3A-8B0A-453D-B8D4-B07A028D6BC6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09F71C4-1038-47FB-A486-A3D57E27E01E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TablaPredictivaV1.xlsx
+++ b/TablaPredictivaV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por_s\OneDrive\Documentos\NetBeansProjects\EditorPlanet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30378A-F985-43F0-91C0-3FF374A78A1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12257879-D6DE-4E89-95B3-7BA2BC740901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{57810E6E-0A21-499C-91E2-287DBF5E8AC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57810E6E-0A21-499C-91E2-287DBF5E8AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB6E7C-481F-445C-A027-9F2C15CEC2C1}">
   <dimension ref="A1:CN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN109" sqref="AN109"/>
+    <sheetView tabSelected="1" topLeftCell="BB49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV61" sqref="BV61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16116,7 +16116,7 @@
         <v>115</v>
       </c>
       <c r="BV58" s="6">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="BW58" s="13">
         <v>116</v>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="BV61" s="6">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="BW61" s="13">
         <v>122</v>
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="BU71" s="13">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="BV71" s="6">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>173</v>
       </c>
       <c r="BV84" s="6">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="BW84" s="13">
         <v>173</v>

--- a/TablaPredictivaV1.xlsx
+++ b/TablaPredictivaV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por_s\OneDrive\Documentos\NetBeansProjects\EditorPlanet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12257879-D6DE-4E89-95B3-7BA2BC740901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DBBCBC-F60D-45CD-AAC2-4E54DB400290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57810E6E-0A21-499C-91E2-287DBF5E8AC4}"/>
   </bookViews>
@@ -514,10 +514,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB6E7C-481F-445C-A027-9F2C15CEC2C1}">
   <dimension ref="A1:CN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV61" sqref="BV61"/>
+    <sheetView tabSelected="1" topLeftCell="AH43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL57" sqref="BL57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,16 +1381,16 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
         <v>0</v>
       </c>
       <c r="F3" s="10">
@@ -2173,7 +2173,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>10</v>
       </c>
       <c r="C6" s="10">
@@ -8243,13 +8243,13 @@
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>56</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>56</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>56</v>
       </c>
       <c r="E29" s="6">
@@ -8261,7 +8261,7 @@
       <c r="G29" s="6">
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>56</v>
       </c>
       <c r="I29" s="6">
@@ -8273,10 +8273,10 @@
       <c r="K29" s="6">
         <v>0</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <v>56</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <v>56</v>
       </c>
       <c r="N29" s="6">
@@ -8360,7 +8360,7 @@
       <c r="AN29" s="6">
         <v>0</v>
       </c>
-      <c r="AO29" s="13">
+      <c r="AO29" s="12">
         <v>56</v>
       </c>
       <c r="AP29" s="6">
@@ -8372,13 +8372,13 @@
       <c r="AR29" s="6">
         <v>0</v>
       </c>
-      <c r="AS29" s="13">
+      <c r="AS29" s="12">
         <v>56</v>
       </c>
-      <c r="AT29" s="13">
+      <c r="AT29" s="12">
         <v>56</v>
       </c>
-      <c r="AU29" s="13">
+      <c r="AU29" s="12">
         <v>56</v>
       </c>
       <c r="AV29" s="6">
@@ -8402,7 +8402,7 @@
       <c r="BB29" s="6">
         <v>0</v>
       </c>
-      <c r="BC29" s="13">
+      <c r="BC29" s="12">
         <v>55</v>
       </c>
       <c r="BD29" s="6">
@@ -8411,10 +8411,10 @@
       <c r="BE29" s="6">
         <v>0</v>
       </c>
-      <c r="BF29" s="13">
+      <c r="BF29" s="12">
         <v>56</v>
       </c>
-      <c r="BG29" s="13">
+      <c r="BG29" s="12">
         <v>56</v>
       </c>
       <c r="BH29" s="6">
@@ -8426,10 +8426,10 @@
       <c r="BJ29" s="6">
         <v>0</v>
       </c>
-      <c r="BK29" s="13">
+      <c r="BK29" s="12">
         <v>56</v>
       </c>
-      <c r="BL29" s="13">
+      <c r="BL29" s="12">
         <v>54</v>
       </c>
       <c r="BM29" s="6">
@@ -8456,7 +8456,7 @@
       <c r="BT29" s="6">
         <v>0</v>
       </c>
-      <c r="BU29" s="13">
+      <c r="BU29" s="12">
         <v>56</v>
       </c>
       <c r="BV29" s="6">
@@ -8486,10 +8486,10 @@
       <c r="CD29" s="6">
         <v>0</v>
       </c>
-      <c r="CE29" s="13">
+      <c r="CE29" s="12">
         <v>56</v>
       </c>
-      <c r="CF29" s="13">
+      <c r="CF29" s="12">
         <v>56</v>
       </c>
       <c r="CG29" s="10">
@@ -8508,13 +8508,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I30" s="6">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N30" s="6">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="AO30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AP30" s="6">
         <v>0</v>
@@ -8637,13 +8637,13 @@
         <v>0</v>
       </c>
       <c r="AS30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AT30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AU30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AV30" s="6">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="BC30" s="6">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="BD30" s="6">
         <v>0</v>
@@ -8676,10 +8676,10 @@
         <v>0</v>
       </c>
       <c r="BF30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BG30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BH30" s="6">
         <v>0</v>
@@ -8691,9 +8691,9 @@
         <v>0</v>
       </c>
       <c r="BK30" s="6">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="13">
+        <v>59</v>
+      </c>
+      <c r="BL30" s="12">
         <v>57</v>
       </c>
       <c r="BM30" s="6">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="BU30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BV30" s="6">
         <v>0</v>
@@ -8751,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="CE30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="CF30" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="CG30" s="10">
         <v>0</v>
@@ -8771,13 +8771,13 @@
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>59</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>59</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>59</v>
       </c>
       <c r="E31" s="6">
@@ -8789,7 +8789,7 @@
       <c r="G31" s="6">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <v>59</v>
       </c>
       <c r="I31" s="6">
@@ -8801,10 +8801,10 @@
       <c r="K31" s="6">
         <v>0</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="12">
         <v>59</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="12">
         <v>59</v>
       </c>
       <c r="N31" s="6">
@@ -8888,7 +8888,7 @@
       <c r="AN31" s="6">
         <v>0</v>
       </c>
-      <c r="AO31" s="13">
+      <c r="AO31" s="12">
         <v>59</v>
       </c>
       <c r="AP31" s="6">
@@ -8900,13 +8900,13 @@
       <c r="AR31" s="6">
         <v>0</v>
       </c>
-      <c r="AS31" s="13">
+      <c r="AS31" s="12">
         <v>59</v>
       </c>
-      <c r="AT31" s="13">
+      <c r="AT31" s="12">
         <v>59</v>
       </c>
-      <c r="AU31" s="13">
+      <c r="AU31" s="12">
         <v>59</v>
       </c>
       <c r="AV31" s="6">
@@ -8930,7 +8930,7 @@
       <c r="BB31" s="6">
         <v>0</v>
       </c>
-      <c r="BC31" s="13">
+      <c r="BC31" s="12">
         <v>58</v>
       </c>
       <c r="BD31" s="6">
@@ -8939,10 +8939,10 @@
       <c r="BE31" s="6">
         <v>0</v>
       </c>
-      <c r="BF31" s="13">
+      <c r="BF31" s="12">
         <v>59</v>
       </c>
-      <c r="BG31" s="13">
+      <c r="BG31" s="12">
         <v>59</v>
       </c>
       <c r="BH31" s="6">
@@ -8954,7 +8954,7 @@
       <c r="BJ31" s="6">
         <v>0</v>
       </c>
-      <c r="BK31" s="13">
+      <c r="BK31" s="12">
         <v>59</v>
       </c>
       <c r="BL31" s="6">
@@ -8984,7 +8984,7 @@
       <c r="BT31" s="6">
         <v>0</v>
       </c>
-      <c r="BU31" s="13">
+      <c r="BU31" s="12">
         <v>59</v>
       </c>
       <c r="BV31" s="6">
@@ -9014,10 +9014,10 @@
       <c r="CD31" s="6">
         <v>0</v>
       </c>
-      <c r="CE31" s="13">
+      <c r="CE31" s="12">
         <v>59</v>
       </c>
-      <c r="CF31" s="13">
+      <c r="CF31" s="12">
         <v>59</v>
       </c>
       <c r="CG31" s="10">
@@ -9194,7 +9194,7 @@
       <c r="BB32" s="6">
         <v>0</v>
       </c>
-      <c r="BC32" s="13">
+      <c r="BC32" s="12">
         <v>60</v>
       </c>
       <c r="BD32" s="6">
@@ -9221,7 +9221,7 @@
       <c r="BK32" s="6">
         <v>0</v>
       </c>
-      <c r="BL32" s="13">
+      <c r="BL32" s="12">
         <v>61</v>
       </c>
       <c r="BM32" s="6">
@@ -9485,7 +9485,7 @@
       <c r="BK33" s="6">
         <v>0</v>
       </c>
-      <c r="BL33" s="13">
+      <c r="BL33" s="12">
         <v>62</v>
       </c>
       <c r="BM33" s="6">
@@ -9722,7 +9722,7 @@
       <c r="BB34" s="6">
         <v>0</v>
       </c>
-      <c r="BC34" s="13">
+      <c r="BC34" s="12">
         <v>64</v>
       </c>
       <c r="BD34" s="6">
@@ -9749,7 +9749,7 @@
       <c r="BK34" s="6">
         <v>0</v>
       </c>
-      <c r="BL34" s="13">
+      <c r="BL34" s="12">
         <v>63</v>
       </c>
       <c r="BM34" s="6">
@@ -10013,7 +10013,7 @@
       <c r="BK35" s="6">
         <v>0</v>
       </c>
-      <c r="BL35" s="13">
+      <c r="BL35" s="12">
         <v>65</v>
       </c>
       <c r="BM35" s="6">
@@ -10277,7 +10277,7 @@
       <c r="BK36" s="6">
         <v>0</v>
       </c>
-      <c r="BL36" s="13">
+      <c r="BL36" s="12">
         <v>66</v>
       </c>
       <c r="BM36" s="6">
@@ -10514,7 +10514,7 @@
       <c r="BB37" s="6">
         <v>0</v>
       </c>
-      <c r="BC37" s="13">
+      <c r="BC37" s="12">
         <v>67</v>
       </c>
       <c r="BD37" s="6">
@@ -10832,7 +10832,7 @@
       <c r="BT38" s="6">
         <v>0</v>
       </c>
-      <c r="BU38" s="13">
+      <c r="BU38" s="12">
         <v>68</v>
       </c>
       <c r="BV38" s="6">
@@ -11051,10 +11051,10 @@
       <c r="BE39" s="6">
         <v>0</v>
       </c>
-      <c r="BF39" s="13">
+      <c r="BF39" s="12">
         <v>69</v>
       </c>
-      <c r="BG39" s="13">
+      <c r="BG39" s="12">
         <v>70</v>
       </c>
       <c r="BH39" s="6">
@@ -11147,13 +11147,13 @@
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>72</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>72</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>72</v>
       </c>
       <c r="E40" s="6">
@@ -11165,7 +11165,7 @@
       <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>72</v>
       </c>
       <c r="I40" s="6">
@@ -11177,10 +11177,10 @@
       <c r="K40" s="6">
         <v>0</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="12">
         <v>72</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="12">
         <v>72</v>
       </c>
       <c r="N40" s="6">
@@ -11264,7 +11264,7 @@
       <c r="AN40" s="6">
         <v>0</v>
       </c>
-      <c r="AO40" s="13">
+      <c r="AO40" s="12">
         <v>72</v>
       </c>
       <c r="AP40" s="6">
@@ -11276,13 +11276,13 @@
       <c r="AR40" s="6">
         <v>0</v>
       </c>
-      <c r="AS40" s="13">
+      <c r="AS40" s="12">
         <v>72</v>
       </c>
-      <c r="AT40" s="13">
+      <c r="AT40" s="12">
         <v>72</v>
       </c>
-      <c r="AU40" s="13">
+      <c r="AU40" s="12">
         <v>72</v>
       </c>
       <c r="AV40" s="6">
@@ -11306,7 +11306,7 @@
       <c r="BB40" s="6">
         <v>0</v>
       </c>
-      <c r="BC40" s="13">
+      <c r="BC40" s="12">
         <v>71</v>
       </c>
       <c r="BD40" s="6">
@@ -11315,10 +11315,10 @@
       <c r="BE40" s="6">
         <v>0</v>
       </c>
-      <c r="BF40" s="13">
+      <c r="BF40" s="12">
         <v>72</v>
       </c>
-      <c r="BG40" s="13">
+      <c r="BG40" s="12">
         <v>72</v>
       </c>
       <c r="BH40" s="6">
@@ -11330,10 +11330,10 @@
       <c r="BJ40" s="6">
         <v>0</v>
       </c>
-      <c r="BK40" s="13">
+      <c r="BK40" s="12">
         <v>72</v>
       </c>
-      <c r="BL40" s="13">
+      <c r="BL40" s="12">
         <v>73</v>
       </c>
       <c r="BM40" s="6">
@@ -11360,7 +11360,7 @@
       <c r="BT40" s="6">
         <v>0</v>
       </c>
-      <c r="BU40" s="13">
+      <c r="BU40" s="12">
         <v>72</v>
       </c>
       <c r="BV40" s="6">
@@ -11390,10 +11390,10 @@
       <c r="CD40" s="6">
         <v>0</v>
       </c>
-      <c r="CE40" s="13">
+      <c r="CE40" s="12">
         <v>72</v>
       </c>
-      <c r="CF40" s="13">
+      <c r="CF40" s="12">
         <v>72</v>
       </c>
       <c r="CG40" s="10">
@@ -11474,13 +11474,13 @@
       <c r="V41" s="6">
         <v>0</v>
       </c>
-      <c r="W41" s="13">
+      <c r="W41" s="12">
         <v>76</v>
       </c>
       <c r="X41" s="6">
         <v>0</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Y41" s="12">
         <v>74</v>
       </c>
       <c r="Z41" s="6">
@@ -11636,7 +11636,7 @@
       <c r="BX41" s="6">
         <v>0</v>
       </c>
-      <c r="BY41" s="13">
+      <c r="BY41" s="12">
         <v>75</v>
       </c>
       <c r="BZ41" s="6">
@@ -11675,13 +11675,13 @@
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>77</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>77</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>77</v>
       </c>
       <c r="E42" s="6">
@@ -11693,7 +11693,7 @@
       <c r="G42" s="6">
         <v>0</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>77</v>
       </c>
       <c r="I42" s="6">
@@ -11705,10 +11705,10 @@
       <c r="K42" s="6">
         <v>0</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="12">
         <v>77</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="12">
         <v>77</v>
       </c>
       <c r="N42" s="6">
@@ -11792,7 +11792,7 @@
       <c r="AN42" s="6">
         <v>0</v>
       </c>
-      <c r="AO42" s="13">
+      <c r="AO42" s="12">
         <v>77</v>
       </c>
       <c r="AP42" s="6">
@@ -11804,13 +11804,13 @@
       <c r="AR42" s="6">
         <v>0</v>
       </c>
-      <c r="AS42" s="13">
+      <c r="AS42" s="12">
         <v>77</v>
       </c>
-      <c r="AT42" s="13">
+      <c r="AT42" s="12">
         <v>77</v>
       </c>
-      <c r="AU42" s="13">
+      <c r="AU42" s="12">
         <v>77</v>
       </c>
       <c r="AV42" s="6">
@@ -11834,7 +11834,7 @@
       <c r="BB42" s="6">
         <v>0</v>
       </c>
-      <c r="BC42" s="13">
+      <c r="BC42" s="12">
         <v>79</v>
       </c>
       <c r="BD42" s="6">
@@ -11843,10 +11843,10 @@
       <c r="BE42" s="6">
         <v>0</v>
       </c>
-      <c r="BF42" s="13">
+      <c r="BF42" s="12">
         <v>77</v>
       </c>
-      <c r="BG42" s="13">
+      <c r="BG42" s="12">
         <v>77</v>
       </c>
       <c r="BH42" s="6">
@@ -11858,10 +11858,10 @@
       <c r="BJ42" s="6">
         <v>0</v>
       </c>
-      <c r="BK42" s="13">
+      <c r="BK42" s="12">
         <v>77</v>
       </c>
-      <c r="BL42" s="13">
+      <c r="BL42" s="12">
         <v>78</v>
       </c>
       <c r="BM42" s="6">
@@ -11888,7 +11888,7 @@
       <c r="BT42" s="6">
         <v>0</v>
       </c>
-      <c r="BU42" s="13">
+      <c r="BU42" s="12">
         <v>77</v>
       </c>
       <c r="BV42" s="6">
@@ -11918,10 +11918,10 @@
       <c r="CD42" s="6">
         <v>0</v>
       </c>
-      <c r="CE42" s="13">
+      <c r="CE42" s="12">
         <v>77</v>
       </c>
-      <c r="CF42" s="13">
+      <c r="CF42" s="12">
         <v>77</v>
       </c>
       <c r="CG42" s="10">
@@ -11939,13 +11939,13 @@
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>81</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>81</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>81</v>
       </c>
       <c r="E43" s="6">
@@ -11957,7 +11957,7 @@
       <c r="G43" s="6">
         <v>0</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <v>81</v>
       </c>
       <c r="I43" s="6">
@@ -11969,7 +11969,7 @@
       <c r="K43" s="6">
         <v>0</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="12">
         <v>81</v>
       </c>
       <c r="M43" s="6">
@@ -12056,7 +12056,7 @@
       <c r="AN43" s="6">
         <v>0</v>
       </c>
-      <c r="AO43" s="13">
+      <c r="AO43" s="12">
         <v>81</v>
       </c>
       <c r="AP43" s="6">
@@ -12068,13 +12068,13 @@
       <c r="AR43" s="6">
         <v>0</v>
       </c>
-      <c r="AS43" s="13">
+      <c r="AS43" s="12">
         <v>81</v>
       </c>
-      <c r="AT43" s="13">
+      <c r="AT43" s="12">
         <v>81</v>
       </c>
-      <c r="AU43" s="13">
+      <c r="AU43" s="12">
         <v>81</v>
       </c>
       <c r="AV43" s="6">
@@ -12107,10 +12107,10 @@
       <c r="BE43" s="6">
         <v>0</v>
       </c>
-      <c r="BF43" s="13">
+      <c r="BF43" s="12">
         <v>81</v>
       </c>
-      <c r="BG43" s="13">
+      <c r="BG43" s="12">
         <v>81</v>
       </c>
       <c r="BH43" s="6">
@@ -12122,10 +12122,10 @@
       <c r="BJ43" s="6">
         <v>0</v>
       </c>
-      <c r="BK43" s="13">
+      <c r="BK43" s="12">
         <v>81</v>
       </c>
-      <c r="BL43" s="13">
+      <c r="BL43" s="12">
         <v>80</v>
       </c>
       <c r="BM43" s="6">
@@ -12152,7 +12152,7 @@
       <c r="BT43" s="6">
         <v>0</v>
       </c>
-      <c r="BU43" s="13">
+      <c r="BU43" s="12">
         <v>81</v>
       </c>
       <c r="BV43" s="6">
@@ -12182,10 +12182,10 @@
       <c r="CD43" s="6">
         <v>0</v>
       </c>
-      <c r="CE43" s="13">
+      <c r="CE43" s="12">
         <v>81</v>
       </c>
-      <c r="CF43" s="13">
+      <c r="CF43" s="12">
         <v>81</v>
       </c>
       <c r="CG43" s="10">
@@ -12203,7 +12203,7 @@
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>0</v>
       </c>
       <c r="C44" s="6">
@@ -12362,7 +12362,7 @@
       <c r="BB44" s="6">
         <v>0</v>
       </c>
-      <c r="BC44" s="13">
+      <c r="BC44" s="12">
         <v>82</v>
       </c>
       <c r="BD44" s="6">
@@ -12389,7 +12389,7 @@
       <c r="BK44" s="6">
         <v>0</v>
       </c>
-      <c r="BL44" s="13">
+      <c r="BL44" s="12">
         <v>82</v>
       </c>
       <c r="BM44" s="6">
@@ -12467,7 +12467,7 @@
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>0</v>
       </c>
       <c r="C45" s="6">
@@ -12626,7 +12626,7 @@
       <c r="BB45" s="6">
         <v>0</v>
       </c>
-      <c r="BC45" s="13">
+      <c r="BC45" s="12">
         <v>83</v>
       </c>
       <c r="BD45" s="6">
@@ -12653,7 +12653,7 @@
       <c r="BK45" s="6">
         <v>0</v>
       </c>
-      <c r="BL45" s="13">
+      <c r="BL45" s="12">
         <v>84</v>
       </c>
       <c r="BM45" s="6">
@@ -12731,7 +12731,7 @@
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>0</v>
       </c>
       <c r="C46" s="6">
@@ -12794,13 +12794,13 @@
       <c r="V46" s="6">
         <v>0</v>
       </c>
-      <c r="W46" s="13">
+      <c r="W46" s="12">
         <v>86</v>
       </c>
       <c r="X46" s="6">
         <v>0</v>
       </c>
-      <c r="Y46" s="13">
+      <c r="Y46" s="12">
         <v>85</v>
       </c>
       <c r="Z46" s="6">
@@ -12956,7 +12956,7 @@
       <c r="BX46" s="6">
         <v>0</v>
       </c>
-      <c r="BY46" s="13">
+      <c r="BY46" s="12">
         <v>87</v>
       </c>
       <c r="BZ46" s="6">
@@ -12995,7 +12995,7 @@
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>0</v>
       </c>
       <c r="C47" s="6">
@@ -13181,7 +13181,7 @@
       <c r="BK47" s="6">
         <v>0</v>
       </c>
-      <c r="BL47" s="13">
+      <c r="BL47" s="12">
         <v>88</v>
       </c>
       <c r="BM47" s="6">
@@ -13259,13 +13259,13 @@
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>90</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>90</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>90</v>
       </c>
       <c r="E48" s="6">
@@ -13277,7 +13277,7 @@
       <c r="G48" s="6">
         <v>0</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="12">
         <v>90</v>
       </c>
       <c r="I48" s="6">
@@ -13289,10 +13289,10 @@
       <c r="K48" s="6">
         <v>0</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="12">
         <v>90</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="12">
         <v>90</v>
       </c>
       <c r="N48" s="6">
@@ -13376,7 +13376,7 @@
       <c r="AN48" s="6">
         <v>0</v>
       </c>
-      <c r="AO48" s="13">
+      <c r="AO48" s="12">
         <v>90</v>
       </c>
       <c r="AP48" s="6">
@@ -13388,13 +13388,13 @@
       <c r="AR48" s="6">
         <v>0</v>
       </c>
-      <c r="AS48" s="13">
+      <c r="AS48" s="12">
         <v>90</v>
       </c>
-      <c r="AT48" s="13">
+      <c r="AT48" s="12">
         <v>90</v>
       </c>
-      <c r="AU48" s="13">
+      <c r="AU48" s="12">
         <v>90</v>
       </c>
       <c r="AV48" s="6">
@@ -13418,7 +13418,7 @@
       <c r="BB48" s="6">
         <v>0</v>
       </c>
-      <c r="BC48" s="13">
+      <c r="BC48" s="12">
         <v>90</v>
       </c>
       <c r="BD48" s="6">
@@ -13427,10 +13427,10 @@
       <c r="BE48" s="6">
         <v>0</v>
       </c>
-      <c r="BF48" s="13">
+      <c r="BF48" s="12">
         <v>90</v>
       </c>
-      <c r="BG48" s="13">
+      <c r="BG48" s="12">
         <v>90</v>
       </c>
       <c r="BH48" s="6">
@@ -13442,10 +13442,10 @@
       <c r="BJ48" s="6">
         <v>0</v>
       </c>
-      <c r="BK48" s="13">
+      <c r="BK48" s="12">
         <v>90</v>
       </c>
-      <c r="BL48" s="13">
+      <c r="BL48" s="12">
         <v>89</v>
       </c>
       <c r="BM48" s="6">
@@ -13472,7 +13472,7 @@
       <c r="BT48" s="6">
         <v>0</v>
       </c>
-      <c r="BU48" s="13">
+      <c r="BU48" s="12">
         <v>90</v>
       </c>
       <c r="BV48" s="6">
@@ -13502,10 +13502,10 @@
       <c r="CD48" s="6">
         <v>0</v>
       </c>
-      <c r="CE48" s="13">
+      <c r="CE48" s="12">
         <v>90</v>
       </c>
-      <c r="CF48" s="13">
+      <c r="CF48" s="12">
         <v>90</v>
       </c>
       <c r="CG48" s="10">
@@ -13523,7 +13523,7 @@
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>0</v>
       </c>
       <c r="C49" s="6">
@@ -13709,7 +13709,7 @@
       <c r="BK49" s="6">
         <v>0</v>
       </c>
-      <c r="BL49" s="13">
+      <c r="BL49" s="12">
         <v>91</v>
       </c>
       <c r="BM49" s="6">
@@ -13787,13 +13787,13 @@
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>93</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>93</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>93</v>
       </c>
       <c r="E50" s="6">
@@ -13805,7 +13805,7 @@
       <c r="G50" s="6">
         <v>0</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <v>93</v>
       </c>
       <c r="I50" s="6">
@@ -13817,10 +13817,10 @@
       <c r="K50" s="6">
         <v>0</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="12">
         <v>93</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="12">
         <v>93</v>
       </c>
       <c r="N50" s="6">
@@ -13904,7 +13904,7 @@
       <c r="AN50" s="6">
         <v>0</v>
       </c>
-      <c r="AO50" s="13">
+      <c r="AO50" s="12">
         <v>93</v>
       </c>
       <c r="AP50" s="6">
@@ -13916,13 +13916,13 @@
       <c r="AR50" s="6">
         <v>0</v>
       </c>
-      <c r="AS50" s="13">
+      <c r="AS50" s="12">
         <v>93</v>
       </c>
-      <c r="AT50" s="13">
+      <c r="AT50" s="12">
         <v>93</v>
       </c>
-      <c r="AU50" s="13">
+      <c r="AU50" s="12">
         <v>93</v>
       </c>
       <c r="AV50" s="6">
@@ -13947,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="6">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="BD50" s="6">
         <v>0</v>
@@ -13955,10 +13955,10 @@
       <c r="BE50" s="6">
         <v>0</v>
       </c>
-      <c r="BF50" s="13">
+      <c r="BF50" s="12">
         <v>93</v>
       </c>
-      <c r="BG50" s="13">
+      <c r="BG50" s="12">
         <v>93</v>
       </c>
       <c r="BH50" s="6">
@@ -13970,10 +13970,10 @@
       <c r="BJ50" s="6">
         <v>0</v>
       </c>
-      <c r="BK50" s="13">
+      <c r="BK50" s="12">
         <v>93</v>
       </c>
-      <c r="BL50" s="13">
+      <c r="BL50" s="12">
         <v>92</v>
       </c>
       <c r="BM50" s="6">
@@ -14000,7 +14000,7 @@
       <c r="BT50" s="6">
         <v>0</v>
       </c>
-      <c r="BU50" s="13">
+      <c r="BU50" s="12">
         <v>93</v>
       </c>
       <c r="BV50" s="6">
@@ -14030,10 +14030,10 @@
       <c r="CD50" s="6">
         <v>0</v>
       </c>
-      <c r="CE50" s="13">
+      <c r="CE50" s="12">
         <v>93</v>
       </c>
-      <c r="CF50" s="13">
+      <c r="CF50" s="12">
         <v>93</v>
       </c>
       <c r="CG50" s="10">
@@ -14051,7 +14051,7 @@
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>0</v>
       </c>
       <c r="C51" s="6">
@@ -14117,7 +14117,7 @@
       <c r="W51" s="6">
         <v>0</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="12">
         <v>95</v>
       </c>
       <c r="Y51" s="6">
@@ -14264,22 +14264,22 @@
       <c r="BT51" s="6">
         <v>0</v>
       </c>
-      <c r="BU51" s="13">
+      <c r="BU51" s="12">
         <v>95</v>
       </c>
-      <c r="BV51" s="13">
+      <c r="BV51" s="12">
         <v>95</v>
       </c>
-      <c r="BW51" s="13">
+      <c r="BW51" s="12">
         <v>95</v>
       </c>
-      <c r="BX51" s="13">
+      <c r="BX51" s="12">
         <v>95</v>
       </c>
-      <c r="BY51" s="13">
+      <c r="BY51" s="12">
         <v>95</v>
       </c>
-      <c r="BZ51" s="13">
+      <c r="BZ51" s="12">
         <v>94</v>
       </c>
       <c r="CA51" s="6">
@@ -14315,7 +14315,7 @@
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>0</v>
       </c>
       <c r="C52" s="6">
@@ -14381,7 +14381,7 @@
       <c r="W52" s="6">
         <v>0</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="12">
         <v>96</v>
       </c>
       <c r="Y52" s="6">
@@ -14504,7 +14504,7 @@
       <c r="BL52" s="6">
         <v>0</v>
       </c>
-      <c r="BM52" s="13">
+      <c r="BM52" s="12">
         <v>97</v>
       </c>
       <c r="BN52" s="6">
@@ -14528,22 +14528,22 @@
       <c r="BT52" s="6">
         <v>0</v>
       </c>
-      <c r="BU52" s="13">
+      <c r="BU52" s="12">
         <v>96</v>
       </c>
-      <c r="BV52" s="13">
+      <c r="BV52" s="12">
         <v>96</v>
       </c>
-      <c r="BW52" s="13">
+      <c r="BW52" s="12">
         <v>96</v>
       </c>
-      <c r="BX52" s="13">
+      <c r="BX52" s="12">
         <v>96</v>
       </c>
-      <c r="BY52" s="13">
+      <c r="BY52" s="12">
         <v>96</v>
       </c>
-      <c r="BZ52" s="13">
+      <c r="BZ52" s="12">
         <v>96</v>
       </c>
       <c r="CA52" s="6">
@@ -14579,7 +14579,7 @@
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>0</v>
       </c>
       <c r="C53" s="6">
@@ -14735,10 +14735,10 @@
       <c r="BA53" s="6">
         <v>0</v>
       </c>
-      <c r="BB53" s="13">
+      <c r="BB53" s="12">
         <v>99</v>
       </c>
-      <c r="BC53" s="13">
+      <c r="BC53" s="12">
         <v>99</v>
       </c>
       <c r="BD53" s="6">
@@ -14765,7 +14765,7 @@
       <c r="BK53" s="6">
         <v>0</v>
       </c>
-      <c r="BL53" s="13">
+      <c r="BL53" s="12">
         <v>98</v>
       </c>
       <c r="BM53" s="6">
@@ -14843,7 +14843,7 @@
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>0</v>
       </c>
       <c r="C54" s="6">
@@ -14909,7 +14909,7 @@
       <c r="W54" s="6">
         <v>0</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X54" s="12">
         <v>101</v>
       </c>
       <c r="Y54" s="6">
@@ -15056,19 +15056,19 @@
       <c r="BT54" s="6">
         <v>0</v>
       </c>
-      <c r="BU54" s="13">
+      <c r="BU54" s="12">
         <v>100</v>
       </c>
-      <c r="BV54" s="13">
+      <c r="BV54" s="12">
         <v>103</v>
       </c>
-      <c r="BW54" s="13">
+      <c r="BW54" s="12">
         <v>104</v>
       </c>
-      <c r="BX54" s="13">
+      <c r="BX54" s="12">
         <v>105</v>
       </c>
-      <c r="BY54" s="13">
+      <c r="BY54" s="12">
         <v>102</v>
       </c>
       <c r="BZ54" s="6">
@@ -15107,7 +15107,7 @@
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>0</v>
       </c>
       <c r="C55" s="6">
@@ -15323,16 +15323,16 @@
       <c r="BU55" s="6">
         <v>0</v>
       </c>
-      <c r="BV55" s="13">
+      <c r="BV55" s="12">
         <v>106</v>
       </c>
-      <c r="BW55" s="13">
+      <c r="BW55" s="12">
         <v>107</v>
       </c>
-      <c r="BX55" s="13">
+      <c r="BX55" s="12">
         <v>108</v>
       </c>
-      <c r="BY55" s="13">
+      <c r="BY55" s="12">
         <v>109</v>
       </c>
       <c r="BZ55" s="6">
@@ -15371,7 +15371,7 @@
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>0</v>
       </c>
       <c r="C56" s="6">
@@ -15545,7 +15545,7 @@
       <c r="BG56" s="6">
         <v>0</v>
       </c>
-      <c r="BH56" s="13">
+      <c r="BH56" s="12">
         <v>110</v>
       </c>
       <c r="BI56" s="6">
@@ -15557,7 +15557,7 @@
       <c r="BK56" s="6">
         <v>0</v>
       </c>
-      <c r="BL56" s="13">
+      <c r="BL56" s="12">
         <v>111</v>
       </c>
       <c r="BM56" s="6">
@@ -15635,13 +15635,13 @@
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>113</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>113</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>113</v>
       </c>
       <c r="E57" s="6">
@@ -15653,7 +15653,7 @@
       <c r="G57" s="6">
         <v>0</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>113</v>
       </c>
       <c r="I57" s="6">
@@ -15665,10 +15665,10 @@
       <c r="K57" s="6">
         <v>0</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="12">
         <v>113</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="12">
         <v>113</v>
       </c>
       <c r="N57" s="6">
@@ -15752,7 +15752,7 @@
       <c r="AN57" s="6">
         <v>0</v>
       </c>
-      <c r="AO57" s="13">
+      <c r="AO57" s="12">
         <v>113</v>
       </c>
       <c r="AP57" s="6">
@@ -15764,31 +15764,31 @@
       <c r="AR57" s="6">
         <v>0</v>
       </c>
-      <c r="AS57" s="13">
+      <c r="AS57" s="12">
         <v>113</v>
       </c>
-      <c r="AT57" s="13">
+      <c r="AT57" s="12">
         <v>113</v>
       </c>
-      <c r="AU57" s="13">
+      <c r="AU57" s="12">
         <v>113</v>
       </c>
       <c r="AV57" s="6">
         <v>0</v>
       </c>
-      <c r="AW57" s="13">
+      <c r="AW57" s="12">
         <v>113</v>
       </c>
-      <c r="AX57" s="13">
+      <c r="AX57" s="12">
         <v>113</v>
       </c>
-      <c r="AY57" s="13">
+      <c r="AY57" s="12">
         <v>113</v>
       </c>
-      <c r="AZ57" s="13">
+      <c r="AZ57" s="12">
         <v>113</v>
       </c>
-      <c r="BA57" s="13">
+      <c r="BA57" s="12">
         <v>113</v>
       </c>
       <c r="BB57" s="6">
@@ -15797,40 +15797,40 @@
       <c r="BC57" s="6">
         <v>0</v>
       </c>
-      <c r="BD57" s="13">
+      <c r="BD57" s="12">
         <v>113</v>
       </c>
       <c r="BE57" s="6">
         <v>0</v>
       </c>
-      <c r="BF57" s="13">
+      <c r="BF57" s="12">
         <v>113</v>
       </c>
-      <c r="BG57" s="13">
+      <c r="BG57" s="12">
         <v>113</v>
       </c>
       <c r="BH57" s="6">
         <v>0</v>
       </c>
-      <c r="BI57" s="13">
+      <c r="BI57" s="12">
         <v>113</v>
       </c>
       <c r="BJ57" s="6">
         <v>0</v>
       </c>
-      <c r="BK57" s="13">
+      <c r="BK57" s="12">
         <v>113</v>
       </c>
       <c r="BL57" s="6">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="13">
+        <v>112</v>
+      </c>
+      <c r="BM57" s="12">
         <v>113</v>
       </c>
       <c r="BN57" s="6">
         <v>0</v>
       </c>
-      <c r="BO57" s="13">
+      <c r="BO57" s="12">
         <v>113</v>
       </c>
       <c r="BP57" s="6">
@@ -15848,13 +15848,13 @@
       <c r="BT57" s="6">
         <v>0</v>
       </c>
-      <c r="BU57" s="13">
+      <c r="BU57" s="12">
         <v>113</v>
       </c>
       <c r="BV57" s="6">
         <v>0</v>
       </c>
-      <c r="BW57" s="13">
+      <c r="BW57" s="12">
         <v>113</v>
       </c>
       <c r="BX57" s="6">
@@ -15878,7 +15878,7 @@
       <c r="CD57" s="6">
         <v>0</v>
       </c>
-      <c r="CE57" s="13">
+      <c r="CE57" s="12">
         <v>113</v>
       </c>
       <c r="CF57" s="6">
@@ -15899,7 +15899,7 @@
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>0</v>
       </c>
       <c r="C58" s="6">
@@ -15965,7 +15965,7 @@
       <c r="W58" s="6">
         <v>0</v>
       </c>
-      <c r="X58" s="13">
+      <c r="X58" s="12">
         <v>116</v>
       </c>
       <c r="Y58" s="6">
@@ -16028,13 +16028,13 @@
       <c r="AR58" s="6">
         <v>0</v>
       </c>
-      <c r="AS58" s="13">
+      <c r="AS58" s="12">
         <v>114</v>
       </c>
-      <c r="AT58" s="13">
+      <c r="AT58" s="12">
         <v>114</v>
       </c>
-      <c r="AU58" s="13">
+      <c r="AU58" s="12">
         <v>114</v>
       </c>
       <c r="AV58" s="6">
@@ -16112,19 +16112,19 @@
       <c r="BT58" s="6">
         <v>0</v>
       </c>
-      <c r="BU58" s="13">
+      <c r="BU58" s="12">
         <v>115</v>
       </c>
       <c r="BV58" s="6">
-        <v>265</v>
-      </c>
-      <c r="BW58" s="13">
         <v>116</v>
       </c>
+      <c r="BW58" s="12">
+        <v>116</v>
+      </c>
       <c r="BX58" s="6">
         <v>0</v>
       </c>
-      <c r="BY58" s="13">
+      <c r="BY58" s="12">
         <v>116</v>
       </c>
       <c r="BZ58" s="6">
@@ -16163,7 +16163,7 @@
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>0</v>
       </c>
       <c r="C59" s="6">
@@ -16337,7 +16337,7 @@
       <c r="BG59" s="6">
         <v>0</v>
       </c>
-      <c r="BH59" s="13">
+      <c r="BH59" s="12">
         <v>117</v>
       </c>
       <c r="BI59" s="6">
@@ -16388,7 +16388,7 @@
       <c r="BX59" s="6">
         <v>0</v>
       </c>
-      <c r="BY59" s="13">
+      <c r="BY59" s="12">
         <v>118</v>
       </c>
       <c r="BZ59" s="6">
@@ -16427,7 +16427,7 @@
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>0</v>
       </c>
       <c r="C60" s="6">
@@ -16493,7 +16493,7 @@
       <c r="W60" s="6">
         <v>0</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X60" s="12">
         <v>119</v>
       </c>
       <c r="Y60" s="6">
@@ -16644,15 +16644,15 @@
         <v>0</v>
       </c>
       <c r="BV60" s="6">
-        <v>0</v>
-      </c>
-      <c r="BW60" s="13">
+        <v>265</v>
+      </c>
+      <c r="BW60" s="12">
         <v>121</v>
       </c>
       <c r="BX60" s="6">
         <v>0</v>
       </c>
-      <c r="BY60" s="13">
+      <c r="BY60" s="12">
         <v>120</v>
       </c>
       <c r="BZ60" s="6">
@@ -16691,7 +16691,7 @@
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>0</v>
       </c>
       <c r="C61" s="6">
@@ -16910,13 +16910,13 @@
       <c r="BV61" s="6">
         <v>266</v>
       </c>
-      <c r="BW61" s="13">
+      <c r="BW61" s="12">
         <v>122</v>
       </c>
       <c r="BX61" s="6">
         <v>0</v>
       </c>
-      <c r="BY61" s="13">
+      <c r="BY61" s="12">
         <v>123</v>
       </c>
       <c r="BZ61" s="6">
@@ -16955,7 +16955,7 @@
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>0</v>
       </c>
       <c r="C62" s="6">
@@ -17114,7 +17114,7 @@
       <c r="BB62" s="6">
         <v>0</v>
       </c>
-      <c r="BC62" s="13">
+      <c r="BC62" s="12">
         <v>125</v>
       </c>
       <c r="BD62" s="6">
@@ -17129,7 +17129,7 @@
       <c r="BG62" s="6">
         <v>0</v>
       </c>
-      <c r="BH62" s="13">
+      <c r="BH62" s="12">
         <v>124</v>
       </c>
       <c r="BI62" s="6">
@@ -17141,7 +17141,7 @@
       <c r="BK62" s="6">
         <v>0</v>
       </c>
-      <c r="BL62" s="13">
+      <c r="BL62" s="12">
         <v>125</v>
       </c>
       <c r="BM62" s="6">
@@ -17219,7 +17219,7 @@
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>0</v>
       </c>
       <c r="C63" s="6">
@@ -17378,7 +17378,7 @@
       <c r="BB63" s="6">
         <v>0</v>
       </c>
-      <c r="BC63" s="13">
+      <c r="BC63" s="12">
         <v>126</v>
       </c>
       <c r="BD63" s="6">
@@ -17405,7 +17405,7 @@
       <c r="BK63" s="6">
         <v>0</v>
       </c>
-      <c r="BL63" s="13">
+      <c r="BL63" s="12">
         <v>126</v>
       </c>
       <c r="BM63" s="6">
@@ -17483,7 +17483,7 @@
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>0</v>
       </c>
       <c r="C64" s="6">
@@ -17639,10 +17639,10 @@
       <c r="BA64" s="6">
         <v>0</v>
       </c>
-      <c r="BB64" s="13">
+      <c r="BB64" s="12">
         <v>128</v>
       </c>
-      <c r="BC64" s="13">
+      <c r="BC64" s="12">
         <v>127</v>
       </c>
       <c r="BD64" s="6">
@@ -17747,7 +17747,7 @@
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>0</v>
       </c>
       <c r="C65" s="6">
@@ -17789,7 +17789,7 @@
       <c r="O65" s="6">
         <v>0</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="12">
         <v>131</v>
       </c>
       <c r="Q65" s="6">
@@ -17811,12 +17811,12 @@
         <v>0</v>
       </c>
       <c r="W65" s="6">
-        <v>0</v>
-      </c>
-      <c r="X65" s="13">
+        <v>267</v>
+      </c>
+      <c r="X65" s="12">
         <v>129</v>
       </c>
-      <c r="Y65" s="13">
+      <c r="Y65" s="12">
         <v>129</v>
       </c>
       <c r="Z65" s="6">
@@ -17858,10 +17858,10 @@
       <c r="AL65" s="6">
         <v>0</v>
       </c>
-      <c r="AM65" s="13">
+      <c r="AM65" s="12">
         <v>129</v>
       </c>
-      <c r="AN65" s="13">
+      <c r="AN65" s="12">
         <v>129</v>
       </c>
       <c r="AO65" s="6">
@@ -17882,13 +17882,13 @@
       <c r="AT65" s="6">
         <v>0</v>
       </c>
-      <c r="AU65" s="13">
+      <c r="AU65" s="12">
         <v>129</v>
       </c>
       <c r="AV65" s="6">
         <v>0</v>
       </c>
-      <c r="AW65" s="13">
+      <c r="AW65" s="12">
         <v>129</v>
       </c>
       <c r="AX65" s="6">
@@ -17912,7 +17912,7 @@
       <c r="BD65" s="6">
         <v>0</v>
       </c>
-      <c r="BE65" s="13">
+      <c r="BE65" s="12">
         <v>129</v>
       </c>
       <c r="BF65" s="6">
@@ -17939,7 +17939,7 @@
       <c r="BM65" s="6">
         <v>0</v>
       </c>
-      <c r="BN65" s="13">
+      <c r="BN65" s="12">
         <v>129</v>
       </c>
       <c r="BO65" s="6">
@@ -17948,10 +17948,10 @@
       <c r="BP65" s="6">
         <v>0</v>
       </c>
-      <c r="BQ65" s="13">
+      <c r="BQ65" s="12">
         <v>130</v>
       </c>
-      <c r="BR65" s="13">
+      <c r="BR65" s="12">
         <v>130</v>
       </c>
       <c r="BS65" s="6">
@@ -17960,31 +17960,31 @@
       <c r="BT65" s="6">
         <v>0</v>
       </c>
-      <c r="BU65" s="13">
+      <c r="BU65" s="12">
         <v>129</v>
       </c>
-      <c r="BV65" s="13">
+      <c r="BV65" s="12">
         <v>129</v>
       </c>
-      <c r="BW65" s="13">
+      <c r="BW65" s="12">
         <v>129</v>
       </c>
-      <c r="BX65" s="13">
+      <c r="BX65" s="12">
         <v>129</v>
       </c>
-      <c r="BY65" s="13">
+      <c r="BY65" s="12">
         <v>129</v>
       </c>
-      <c r="BZ65" s="13">
+      <c r="BZ65" s="12">
         <v>129</v>
       </c>
-      <c r="CA65" s="13">
+      <c r="CA65" s="12">
         <v>129</v>
       </c>
-      <c r="CB65" s="13">
+      <c r="CB65" s="12">
         <v>129</v>
       </c>
-      <c r="CC65" s="13">
+      <c r="CC65" s="12">
         <v>129</v>
       </c>
       <c r="CD65" s="6">
@@ -18011,7 +18011,7 @@
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>0</v>
       </c>
       <c r="C66" s="6">
@@ -18140,13 +18140,13 @@
       <c r="AR66" s="6">
         <v>0</v>
       </c>
-      <c r="AS66" s="13">
+      <c r="AS66" s="12">
         <v>132</v>
       </c>
-      <c r="AT66" s="13">
+      <c r="AT66" s="12">
         <v>133</v>
       </c>
-      <c r="AU66" s="13">
+      <c r="AU66" s="12">
         <v>134</v>
       </c>
       <c r="AV66" s="6">
@@ -18275,7 +18275,7 @@
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>0</v>
       </c>
       <c r="C67" s="6">
@@ -18344,7 +18344,7 @@
       <c r="X67" s="6">
         <v>0</v>
       </c>
-      <c r="Y67" s="13">
+      <c r="Y67" s="12">
         <v>139</v>
       </c>
       <c r="Z67" s="6">
@@ -18386,10 +18386,10 @@
       <c r="AL67" s="6">
         <v>0</v>
       </c>
-      <c r="AM67" s="13">
+      <c r="AM67" s="12">
         <v>138</v>
       </c>
-      <c r="AN67" s="13">
+      <c r="AN67" s="12">
         <v>138</v>
       </c>
       <c r="AO67" s="6">
@@ -18503,16 +18503,16 @@
       <c r="BY67" s="6">
         <v>0</v>
       </c>
-      <c r="BZ67" s="13">
+      <c r="BZ67" s="12">
         <v>135</v>
       </c>
-      <c r="CA67" s="13">
+      <c r="CA67" s="12">
         <v>135</v>
       </c>
-      <c r="CB67" s="13">
+      <c r="CB67" s="12">
         <v>137</v>
       </c>
-      <c r="CC67" s="13">
+      <c r="CC67" s="12">
         <v>136</v>
       </c>
       <c r="CD67" s="6">
@@ -18539,7 +18539,7 @@
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>0</v>
       </c>
       <c r="C68" s="6">
@@ -18767,10 +18767,10 @@
       <c r="BY68" s="6">
         <v>0</v>
       </c>
-      <c r="BZ68" s="13">
+      <c r="BZ68" s="12">
         <v>140</v>
       </c>
-      <c r="CA68" s="13">
+      <c r="CA68" s="12">
         <v>141</v>
       </c>
       <c r="CB68" s="6">
@@ -18803,7 +18803,7 @@
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>0</v>
       </c>
       <c r="C69" s="6">
@@ -18914,10 +18914,10 @@
       <c r="AL69" s="6">
         <v>0</v>
       </c>
-      <c r="AM69" s="13">
+      <c r="AM69" s="12">
         <v>142</v>
       </c>
-      <c r="AN69" s="13">
+      <c r="AN69" s="12">
         <v>143</v>
       </c>
       <c r="AO69" s="6">
@@ -19067,7 +19067,7 @@
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>0</v>
       </c>
       <c r="C70" s="6">
@@ -19184,7 +19184,7 @@
       <c r="AN70" s="6">
         <v>0</v>
       </c>
-      <c r="AO70" s="13">
+      <c r="AO70" s="12">
         <v>144</v>
       </c>
       <c r="AP70" s="6">
@@ -19331,7 +19331,7 @@
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>0</v>
       </c>
       <c r="C71" s="6">
@@ -19460,13 +19460,13 @@
       <c r="AR71" s="6">
         <v>0</v>
       </c>
-      <c r="AS71" s="13">
+      <c r="AS71" s="12">
         <v>145</v>
       </c>
-      <c r="AT71" s="13">
+      <c r="AT71" s="12">
         <v>145</v>
       </c>
-      <c r="AU71" s="13">
+      <c r="AU71" s="12">
         <v>145</v>
       </c>
       <c r="AV71" s="6">
@@ -19526,7 +19526,7 @@
       <c r="BN71" s="6">
         <v>0</v>
       </c>
-      <c r="BO71" s="13">
+      <c r="BO71" s="12">
         <v>146</v>
       </c>
       <c r="BP71" s="6">
@@ -19544,7 +19544,7 @@
       <c r="BT71" s="6">
         <v>0</v>
       </c>
-      <c r="BU71" s="13">
+      <c r="BU71" s="12">
         <v>256</v>
       </c>
       <c r="BV71" s="6">
@@ -19595,7 +19595,7 @@
       <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>0</v>
       </c>
       <c r="C72" s="6">
@@ -19763,7 +19763,7 @@
       <c r="BE72" s="6">
         <v>0</v>
       </c>
-      <c r="BF72" s="13">
+      <c r="BF72" s="12">
         <v>147</v>
       </c>
       <c r="BG72" s="6">
@@ -19790,7 +19790,7 @@
       <c r="BN72" s="6">
         <v>0</v>
       </c>
-      <c r="BO72" s="13">
+      <c r="BO72" s="12">
         <v>148</v>
       </c>
       <c r="BP72" s="6">
@@ -19859,7 +19859,7 @@
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>0</v>
       </c>
       <c r="C73" s="6">
@@ -19889,10 +19889,10 @@
       <c r="K73" s="6">
         <v>0</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="12">
         <v>150</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="12">
         <v>149</v>
       </c>
       <c r="N73" s="6">
@@ -20123,7 +20123,7 @@
       <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>0</v>
       </c>
       <c r="C74" s="6">
@@ -20153,7 +20153,7 @@
       <c r="K74" s="6">
         <v>0</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="12">
         <v>151</v>
       </c>
       <c r="M74" s="6">
@@ -20387,7 +20387,7 @@
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>0</v>
       </c>
       <c r="C75" s="6">
@@ -20447,7 +20447,7 @@
       <c r="U75" s="6">
         <v>0</v>
       </c>
-      <c r="V75" s="13">
+      <c r="V75" s="12">
         <v>153</v>
       </c>
       <c r="W75" s="6">
@@ -20603,7 +20603,7 @@
       <c r="BU75" s="6">
         <v>0</v>
       </c>
-      <c r="BV75" s="13">
+      <c r="BV75" s="12">
         <v>152</v>
       </c>
       <c r="BW75" s="6">
@@ -20651,7 +20651,7 @@
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>0</v>
       </c>
       <c r="C76" s="6">
@@ -20711,7 +20711,7 @@
       <c r="U76" s="6">
         <v>0</v>
       </c>
-      <c r="V76" s="13">
+      <c r="V76" s="12">
         <v>154</v>
       </c>
       <c r="W76" s="6">
@@ -20915,7 +20915,7 @@
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>0</v>
       </c>
       <c r="C77" s="6">
@@ -20948,7 +20948,7 @@
       <c r="L77" s="6">
         <v>0</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="12">
         <v>155</v>
       </c>
       <c r="N77" s="6">
@@ -21179,7 +21179,7 @@
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>0</v>
       </c>
       <c r="C78" s="6">
@@ -21245,10 +21245,10 @@
       <c r="W78" s="6">
         <v>0</v>
       </c>
-      <c r="X78" s="13">
+      <c r="X78" s="12">
         <v>156</v>
       </c>
-      <c r="Y78" s="13">
+      <c r="Y78" s="12">
         <v>156</v>
       </c>
       <c r="Z78" s="6">
@@ -21314,13 +21314,13 @@
       <c r="AT78" s="6">
         <v>0</v>
       </c>
-      <c r="AU78" s="13">
+      <c r="AU78" s="12">
         <v>156</v>
       </c>
       <c r="AV78" s="6">
         <v>0</v>
       </c>
-      <c r="AW78" s="13">
+      <c r="AW78" s="12">
         <v>156</v>
       </c>
       <c r="AX78" s="6">
@@ -21344,7 +21344,7 @@
       <c r="BD78" s="6">
         <v>0</v>
       </c>
-      <c r="BE78" s="13">
+      <c r="BE78" s="12">
         <v>156</v>
       </c>
       <c r="BF78" s="6">
@@ -21371,7 +21371,7 @@
       <c r="BM78" s="6">
         <v>0</v>
       </c>
-      <c r="BN78" s="13">
+      <c r="BN78" s="12">
         <v>156</v>
       </c>
       <c r="BO78" s="6">
@@ -21392,31 +21392,31 @@
       <c r="BT78" s="6">
         <v>0</v>
       </c>
-      <c r="BU78" s="13">
+      <c r="BU78" s="12">
         <v>156</v>
       </c>
-      <c r="BV78" s="13">
+      <c r="BV78" s="12">
         <v>156</v>
       </c>
-      <c r="BW78" s="13">
+      <c r="BW78" s="12">
         <v>156</v>
       </c>
-      <c r="BX78" s="13">
+      <c r="BX78" s="12">
         <v>156</v>
       </c>
-      <c r="BY78" s="13">
+      <c r="BY78" s="12">
         <v>156</v>
       </c>
-      <c r="BZ78" s="13">
+      <c r="BZ78" s="12">
         <v>156</v>
       </c>
-      <c r="CA78" s="13">
+      <c r="CA78" s="12">
         <v>156</v>
       </c>
-      <c r="CB78" s="13">
+      <c r="CB78" s="12">
         <v>156</v>
       </c>
-      <c r="CC78" s="13">
+      <c r="CC78" s="12">
         <v>156</v>
       </c>
       <c r="CD78" s="6">
@@ -21443,7 +21443,7 @@
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="12">
         <v>0</v>
       </c>
       <c r="C79" s="6">
@@ -21659,7 +21659,7 @@
       <c r="BU79" s="6">
         <v>0</v>
       </c>
-      <c r="BV79" s="13">
+      <c r="BV79" s="12">
         <v>157</v>
       </c>
       <c r="BW79" s="6">
@@ -21707,7 +21707,7 @@
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="12">
         <v>0</v>
       </c>
       <c r="C80" s="6">
@@ -21773,7 +21773,7 @@
       <c r="W80" s="6">
         <v>0</v>
       </c>
-      <c r="X80" s="13">
+      <c r="X80" s="12">
         <v>158</v>
       </c>
       <c r="Y80" s="6">
@@ -21902,7 +21902,7 @@
       <c r="BN80" s="6">
         <v>0</v>
       </c>
-      <c r="BO80" s="13">
+      <c r="BO80" s="12">
         <v>159</v>
       </c>
       <c r="BP80" s="6">
@@ -21920,19 +21920,19 @@
       <c r="BT80" s="6">
         <v>0</v>
       </c>
-      <c r="BU80" s="13">
+      <c r="BU80" s="12">
         <v>158</v>
       </c>
-      <c r="BV80" s="13">
+      <c r="BV80" s="12">
         <v>158</v>
       </c>
-      <c r="BW80" s="13">
+      <c r="BW80" s="12">
         <v>158</v>
       </c>
-      <c r="BX80" s="13">
+      <c r="BX80" s="12">
         <v>158</v>
       </c>
-      <c r="BY80" s="13">
+      <c r="BY80" s="12">
         <v>158</v>
       </c>
       <c r="BZ80" s="6">
@@ -21971,7 +21971,7 @@
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="12">
         <v>0</v>
       </c>
       <c r="C81" s="6">
@@ -22139,7 +22139,7 @@
       <c r="BE81" s="6">
         <v>0</v>
       </c>
-      <c r="BF81" s="13">
+      <c r="BF81" s="12">
         <v>160</v>
       </c>
       <c r="BG81" s="6">
@@ -22166,7 +22166,7 @@
       <c r="BN81" s="6">
         <v>0</v>
       </c>
-      <c r="BO81" s="13">
+      <c r="BO81" s="12">
         <v>161</v>
       </c>
       <c r="BP81" s="6">
@@ -22235,7 +22235,7 @@
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="12">
         <v>0</v>
       </c>
       <c r="C82" s="6">
@@ -22436,10 +22436,10 @@
       <c r="BP82" s="6">
         <v>0</v>
       </c>
-      <c r="BQ82" s="13">
+      <c r="BQ82" s="12">
         <v>162</v>
       </c>
-      <c r="BR82" s="13">
+      <c r="BR82" s="12">
         <v>163</v>
       </c>
       <c r="BS82" s="6">
@@ -22499,7 +22499,7 @@
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="6">
@@ -22526,7 +22526,7 @@
       <c r="J83" s="6">
         <v>0</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K83" s="12">
         <v>165</v>
       </c>
       <c r="L83" s="6">
@@ -22541,7 +22541,7 @@
       <c r="O83" s="6">
         <v>0</v>
       </c>
-      <c r="P83" s="13">
+      <c r="P83" s="12">
         <v>164</v>
       </c>
       <c r="Q83" s="6">
@@ -22565,7 +22565,7 @@
       <c r="W83" s="6">
         <v>0</v>
       </c>
-      <c r="X83" s="13">
+      <c r="X83" s="12">
         <v>164</v>
       </c>
       <c r="Y83" s="6">
@@ -22577,22 +22577,22 @@
       <c r="AA83" s="6">
         <v>0</v>
       </c>
-      <c r="AB83" s="13">
+      <c r="AB83" s="12">
         <v>165</v>
       </c>
-      <c r="AC83" s="13">
+      <c r="AC83" s="12">
         <v>165</v>
       </c>
       <c r="AD83" s="6">
         <v>0</v>
       </c>
-      <c r="AE83" s="13">
+      <c r="AE83" s="12">
         <v>164</v>
       </c>
-      <c r="AF83" s="13">
+      <c r="AF83" s="12">
         <v>165</v>
       </c>
-      <c r="AG83" s="13">
+      <c r="AG83" s="12">
         <v>164</v>
       </c>
       <c r="AH83" s="6">
@@ -22601,13 +22601,13 @@
       <c r="AI83" s="6">
         <v>0</v>
       </c>
-      <c r="AJ83" s="13">
+      <c r="AJ83" s="12">
         <v>164</v>
       </c>
-      <c r="AK83" s="13">
+      <c r="AK83" s="12">
         <v>164</v>
       </c>
-      <c r="AL83" s="13">
+      <c r="AL83" s="12">
         <v>164</v>
       </c>
       <c r="AM83" s="6">
@@ -22619,7 +22619,7 @@
       <c r="AO83" s="6">
         <v>0</v>
       </c>
-      <c r="AP83" s="13">
+      <c r="AP83" s="12">
         <v>164</v>
       </c>
       <c r="AQ83" s="6">
@@ -22628,13 +22628,13 @@
       <c r="AR83" s="6">
         <v>0</v>
       </c>
-      <c r="AS83" s="13">
+      <c r="AS83" s="12">
         <v>164</v>
       </c>
-      <c r="AT83" s="13">
+      <c r="AT83" s="12">
         <v>164</v>
       </c>
-      <c r="AU83" s="13">
+      <c r="AU83" s="12">
         <v>164</v>
       </c>
       <c r="AV83" s="6">
@@ -22682,7 +22682,7 @@
       <c r="BJ83" s="6">
         <v>0</v>
       </c>
-      <c r="BK83" s="13">
+      <c r="BK83" s="12">
         <v>165</v>
       </c>
       <c r="BL83" s="6">
@@ -22712,19 +22712,19 @@
       <c r="BT83" s="6">
         <v>0</v>
       </c>
-      <c r="BU83" s="13">
+      <c r="BU83" s="12">
         <v>164</v>
       </c>
       <c r="BV83" s="6">
         <v>0</v>
       </c>
-      <c r="BW83" s="13">
+      <c r="BW83" s="12">
         <v>164</v>
       </c>
       <c r="BX83" s="6">
         <v>0</v>
       </c>
-      <c r="BY83" s="13">
+      <c r="BY83" s="12">
         <v>164</v>
       </c>
       <c r="BZ83" s="6">
@@ -22742,10 +22742,10 @@
       <c r="CD83" s="6">
         <v>0</v>
       </c>
-      <c r="CE83" s="13">
+      <c r="CE83" s="12">
         <v>164</v>
       </c>
-      <c r="CF83" s="13">
+      <c r="CF83" s="12">
         <v>164</v>
       </c>
       <c r="CG83" s="10">
@@ -22763,7 +22763,7 @@
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="6">
@@ -22805,7 +22805,7 @@
       <c r="O84" s="6">
         <v>0</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P84" s="12">
         <v>174</v>
       </c>
       <c r="Q84" s="6">
@@ -22829,7 +22829,7 @@
       <c r="W84" s="6">
         <v>0</v>
       </c>
-      <c r="X84" s="13">
+      <c r="X84" s="12">
         <v>173</v>
       </c>
       <c r="Y84" s="6">
@@ -22850,13 +22850,13 @@
       <c r="AD84" s="6">
         <v>0</v>
       </c>
-      <c r="AE84" s="13">
+      <c r="AE84" s="12">
         <v>172</v>
       </c>
       <c r="AF84" s="6">
         <v>0</v>
       </c>
-      <c r="AG84" s="13">
+      <c r="AG84" s="12">
         <v>168</v>
       </c>
       <c r="AH84" s="6">
@@ -22865,13 +22865,13 @@
       <c r="AI84" s="6">
         <v>0</v>
       </c>
-      <c r="AJ84" s="13">
+      <c r="AJ84" s="12">
         <v>169</v>
       </c>
-      <c r="AK84" s="13">
+      <c r="AK84" s="12">
         <v>170</v>
       </c>
-      <c r="AL84" s="13">
+      <c r="AL84" s="12">
         <v>171</v>
       </c>
       <c r="AM84" s="6">
@@ -22883,7 +22883,7 @@
       <c r="AO84" s="6">
         <v>0</v>
       </c>
-      <c r="AP84" s="13">
+      <c r="AP84" s="12">
         <v>166</v>
       </c>
       <c r="AQ84" s="6">
@@ -22892,13 +22892,13 @@
       <c r="AR84" s="6">
         <v>0</v>
       </c>
-      <c r="AS84" s="13">
+      <c r="AS84" s="12">
         <v>173</v>
       </c>
-      <c r="AT84" s="13">
+      <c r="AT84" s="12">
         <v>173</v>
       </c>
-      <c r="AU84" s="13">
+      <c r="AU84" s="12">
         <v>173</v>
       </c>
       <c r="AV84" s="6">
@@ -22976,19 +22976,19 @@
       <c r="BT84" s="6">
         <v>0</v>
       </c>
-      <c r="BU84" s="13">
+      <c r="BU84" s="12">
         <v>173</v>
       </c>
       <c r="BV84" s="6">
         <v>173</v>
       </c>
-      <c r="BW84" s="13">
+      <c r="BW84" s="12">
         <v>173</v>
       </c>
       <c r="BX84" s="6">
         <v>0</v>
       </c>
-      <c r="BY84" s="13">
+      <c r="BY84" s="12">
         <v>173</v>
       </c>
       <c r="BZ84" s="6">
@@ -23006,10 +23006,10 @@
       <c r="CD84" s="6">
         <v>0</v>
       </c>
-      <c r="CE84" s="13">
+      <c r="CE84" s="12">
         <v>167</v>
       </c>
-      <c r="CF84" s="13">
+      <c r="CF84" s="12">
         <v>167</v>
       </c>
       <c r="CG84" s="10">
@@ -23027,7 +23027,7 @@
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="12">
         <v>0</v>
       </c>
       <c r="C85" s="6">
@@ -23120,7 +23120,7 @@
       <c r="AF85" s="6">
         <v>0</v>
       </c>
-      <c r="AG85" s="13">
+      <c r="AG85" s="12">
         <v>175</v>
       </c>
       <c r="AH85" s="6">
@@ -23291,7 +23291,7 @@
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="12">
         <v>0</v>
       </c>
       <c r="C86" s="6">
@@ -23318,7 +23318,7 @@
       <c r="J86" s="6">
         <v>0</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="12">
         <v>178</v>
       </c>
       <c r="L86" s="6">
@@ -23333,7 +23333,7 @@
       <c r="O86" s="6">
         <v>0</v>
       </c>
-      <c r="P86" s="13">
+      <c r="P86" s="12">
         <v>178</v>
       </c>
       <c r="Q86" s="6">
@@ -23357,7 +23357,7 @@
       <c r="W86" s="6">
         <v>0</v>
       </c>
-      <c r="X86" s="13">
+      <c r="X86" s="12">
         <v>178</v>
       </c>
       <c r="Y86" s="6">
@@ -23369,37 +23369,37 @@
       <c r="AA86" s="6">
         <v>0</v>
       </c>
-      <c r="AB86" s="13">
+      <c r="AB86" s="12">
         <v>178</v>
       </c>
-      <c r="AC86" s="13">
+      <c r="AC86" s="12">
         <v>178</v>
       </c>
       <c r="AD86" s="6">
         <v>0</v>
       </c>
-      <c r="AE86" s="13">
+      <c r="AE86" s="12">
         <v>178</v>
       </c>
-      <c r="AF86" s="13">
+      <c r="AF86" s="12">
         <v>178</v>
       </c>
-      <c r="AG86" s="13">
+      <c r="AG86" s="12">
         <v>178</v>
       </c>
-      <c r="AH86" s="13">
+      <c r="AH86" s="12">
         <v>176</v>
       </c>
-      <c r="AI86" s="13">
+      <c r="AI86" s="12">
         <v>177</v>
       </c>
-      <c r="AJ86" s="13">
+      <c r="AJ86" s="12">
         <v>178</v>
       </c>
-      <c r="AK86" s="13">
+      <c r="AK86" s="12">
         <v>178</v>
       </c>
-      <c r="AL86" s="13">
+      <c r="AL86" s="12">
         <v>178</v>
       </c>
       <c r="AM86" s="6">
@@ -23411,7 +23411,7 @@
       <c r="AO86" s="6">
         <v>0</v>
       </c>
-      <c r="AP86" s="13">
+      <c r="AP86" s="12">
         <v>178</v>
       </c>
       <c r="AQ86" s="6">
@@ -23420,13 +23420,13 @@
       <c r="AR86" s="6">
         <v>0</v>
       </c>
-      <c r="AS86" s="13">
+      <c r="AS86" s="12">
         <v>178</v>
       </c>
-      <c r="AT86" s="13">
+      <c r="AT86" s="12">
         <v>178</v>
       </c>
-      <c r="AU86" s="13">
+      <c r="AU86" s="12">
         <v>178</v>
       </c>
       <c r="AV86" s="6">
@@ -23474,7 +23474,7 @@
       <c r="BJ86" s="6">
         <v>0</v>
       </c>
-      <c r="BK86" s="13">
+      <c r="BK86" s="12">
         <v>178</v>
       </c>
       <c r="BL86" s="6">
@@ -23504,19 +23504,19 @@
       <c r="BT86" s="6">
         <v>0</v>
       </c>
-      <c r="BU86" s="13">
+      <c r="BU86" s="12">
         <v>178</v>
       </c>
       <c r="BV86" s="6">
         <v>0</v>
       </c>
-      <c r="BW86" s="13">
+      <c r="BW86" s="12">
         <v>178</v>
       </c>
       <c r="BX86" s="6">
         <v>0</v>
       </c>
-      <c r="BY86" s="13">
+      <c r="BY86" s="12">
         <v>178</v>
       </c>
       <c r="BZ86" s="6">
@@ -23534,10 +23534,10 @@
       <c r="CD86" s="6">
         <v>0</v>
       </c>
-      <c r="CE86" s="13">
+      <c r="CE86" s="12">
         <v>178</v>
       </c>
-      <c r="CF86" s="13">
+      <c r="CF86" s="12">
         <v>178</v>
       </c>
       <c r="CG86" s="10">
@@ -23555,7 +23555,7 @@
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="12">
         <v>0</v>
       </c>
       <c r="C87" s="6">
@@ -23651,7 +23651,7 @@
       <c r="AG87" s="6">
         <v>0</v>
       </c>
-      <c r="AH87" s="13">
+      <c r="AH87" s="12">
         <v>179</v>
       </c>
       <c r="AI87" s="6">
@@ -23819,7 +23819,7 @@
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="12">
         <v>0</v>
       </c>
       <c r="C88" s="6">
@@ -23918,7 +23918,7 @@
       <c r="AH88" s="6">
         <v>0</v>
       </c>
-      <c r="AI88" s="13">
+      <c r="AI88" s="12">
         <v>180</v>
       </c>
       <c r="AJ88" s="6">
@@ -24083,7 +24083,7 @@
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="12">
         <v>0</v>
       </c>
       <c r="C89" s="6">
@@ -24191,7 +24191,7 @@
       <c r="AK89" s="6">
         <v>0</v>
       </c>
-      <c r="AL89" s="13">
+      <c r="AL89" s="12">
         <v>181</v>
       </c>
       <c r="AM89" s="6">
@@ -24347,7 +24347,7 @@
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="12">
         <v>0</v>
       </c>
       <c r="C90" s="6">
@@ -24449,7 +24449,7 @@
       <c r="AI90" s="6">
         <v>0</v>
       </c>
-      <c r="AJ90" s="13">
+      <c r="AJ90" s="12">
         <v>182</v>
       </c>
       <c r="AK90" s="6">
@@ -24611,7 +24611,7 @@
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="12">
         <v>0</v>
       </c>
       <c r="C91" s="6">
@@ -24716,7 +24716,7 @@
       <c r="AJ91" s="6">
         <v>0</v>
       </c>
-      <c r="AK91" s="13">
+      <c r="AK91" s="12">
         <v>183</v>
       </c>
       <c r="AL91" s="6">
@@ -24875,7 +24875,7 @@
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="6">
@@ -24962,7 +24962,7 @@
       <c r="AD92" s="6">
         <v>0</v>
       </c>
-      <c r="AE92" s="13">
+      <c r="AE92" s="12">
         <v>184</v>
       </c>
       <c r="AF92" s="6">
@@ -25139,7 +25139,7 @@
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="6">
@@ -25229,7 +25229,7 @@
       <c r="AE93" s="6">
         <v>0</v>
       </c>
-      <c r="AF93" s="13">
+      <c r="AF93" s="12">
         <v>185</v>
       </c>
       <c r="AG93" s="6">
@@ -25403,7 +25403,7 @@
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="12">
         <v>0</v>
       </c>
       <c r="C94" s="6">
@@ -25481,10 +25481,10 @@
       <c r="AA94" s="6">
         <v>0</v>
       </c>
-      <c r="AB94" s="13">
+      <c r="AB94" s="12">
         <v>187</v>
       </c>
-      <c r="AC94" s="13">
+      <c r="AC94" s="12">
         <v>186</v>
       </c>
       <c r="AD94" s="6">
@@ -25493,7 +25493,7 @@
       <c r="AE94" s="6">
         <v>0</v>
       </c>
-      <c r="AF94" s="13">
+      <c r="AF94" s="12">
         <v>187</v>
       </c>
       <c r="AG94" s="6">
@@ -25586,7 +25586,7 @@
       <c r="BJ94" s="6">
         <v>0</v>
       </c>
-      <c r="BK94" s="13">
+      <c r="BK94" s="12">
         <v>187</v>
       </c>
       <c r="BL94" s="6">
@@ -25667,7 +25667,7 @@
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="12">
         <v>0</v>
       </c>
       <c r="C95" s="6">
@@ -25745,7 +25745,7 @@
       <c r="AA95" s="6">
         <v>0</v>
       </c>
-      <c r="AB95" s="13">
+      <c r="AB95" s="12">
         <v>189</v>
       </c>
       <c r="AC95" s="6">
@@ -25757,7 +25757,7 @@
       <c r="AE95" s="6">
         <v>0</v>
       </c>
-      <c r="AF95" s="13">
+      <c r="AF95" s="12">
         <v>188</v>
       </c>
       <c r="AG95" s="6">
@@ -25850,7 +25850,7 @@
       <c r="BJ95" s="6">
         <v>0</v>
       </c>
-      <c r="BK95" s="13">
+      <c r="BK95" s="12">
         <v>190</v>
       </c>
       <c r="BL95" s="6">
@@ -25931,7 +25931,7 @@
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="12">
         <v>0</v>
       </c>
       <c r="C96" s="6">
@@ -26009,7 +26009,7 @@
       <c r="AA96" s="6">
         <v>0</v>
       </c>
-      <c r="AB96" s="13">
+      <c r="AB96" s="12">
         <v>191</v>
       </c>
       <c r="AC96" s="6">
@@ -26195,7 +26195,7 @@
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="12">
         <v>0</v>
       </c>
       <c r="C97" s="6">
@@ -26237,7 +26237,7 @@
       <c r="O97" s="6">
         <v>0</v>
       </c>
-      <c r="P97" s="13">
+      <c r="P97" s="12">
         <v>192</v>
       </c>
       <c r="Q97" s="6">
@@ -26459,7 +26459,7 @@
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="12">
         <v>0</v>
       </c>
       <c r="C98" s="6">
@@ -26495,10 +26495,10 @@
       <c r="M98" s="6">
         <v>0</v>
       </c>
-      <c r="N98" s="13">
+      <c r="N98" s="12">
         <v>193</v>
       </c>
-      <c r="O98" s="13">
+      <c r="O98" s="12">
         <v>194</v>
       </c>
       <c r="P98" s="6">
@@ -26543,7 +26543,7 @@
       <c r="AC98" s="6">
         <v>0</v>
       </c>
-      <c r="AD98" s="13">
+      <c r="AD98" s="12">
         <v>195</v>
       </c>
       <c r="AE98" s="6">
@@ -26723,7 +26723,7 @@
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="12">
         <v>0</v>
       </c>
       <c r="C99" s="6">
@@ -26759,7 +26759,7 @@
       <c r="M99" s="6">
         <v>0</v>
       </c>
-      <c r="N99" s="13">
+      <c r="N99" s="12">
         <v>196</v>
       </c>
       <c r="O99" s="6">
@@ -26987,7 +26987,7 @@
       <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="12">
         <v>0</v>
       </c>
       <c r="C100" s="6">
@@ -27026,7 +27026,7 @@
       <c r="N100" s="6">
         <v>0</v>
       </c>
-      <c r="O100" s="13">
+      <c r="O100" s="12">
         <v>197</v>
       </c>
       <c r="P100" s="6">
@@ -27251,7 +27251,7 @@
       <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="12">
         <v>0</v>
       </c>
       <c r="C101" s="6">
@@ -27425,7 +27425,7 @@
       <c r="BG101" s="6">
         <v>0</v>
       </c>
-      <c r="BH101" s="13">
+      <c r="BH101" s="12">
         <v>198</v>
       </c>
       <c r="BI101" s="6">
@@ -27443,7 +27443,7 @@
       <c r="BM101" s="6">
         <v>0</v>
       </c>
-      <c r="BN101" s="13">
+      <c r="BN101" s="12">
         <v>199</v>
       </c>
       <c r="BO101" s="6">
@@ -27515,7 +27515,7 @@
       <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="12">
         <v>0</v>
       </c>
       <c r="C102" s="6">
@@ -27599,7 +27599,7 @@
       <c r="AC102" s="6">
         <v>0</v>
       </c>
-      <c r="AD102" s="13">
+      <c r="AD102" s="12">
         <v>200</v>
       </c>
       <c r="AE102" s="6">
@@ -27779,7 +27779,7 @@
       <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="12">
         <v>0</v>
       </c>
       <c r="C103" s="6">
@@ -27899,7 +27899,7 @@
       <c r="AO103" s="6">
         <v>0</v>
       </c>
-      <c r="AP103" s="13">
+      <c r="AP103" s="12">
         <v>201</v>
       </c>
       <c r="AQ103" s="6">
@@ -28043,7 +28043,7 @@
       <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="12">
         <v>0</v>
       </c>
       <c r="C104" s="6">
@@ -28070,7 +28070,7 @@
       <c r="J104" s="6">
         <v>0</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="12">
         <v>203</v>
       </c>
       <c r="L104" s="6">
@@ -28085,7 +28085,7 @@
       <c r="O104" s="6">
         <v>0</v>
       </c>
-      <c r="P104" s="13">
+      <c r="P104" s="12">
         <v>203</v>
       </c>
       <c r="Q104" s="6">
@@ -28109,7 +28109,7 @@
       <c r="W104" s="6">
         <v>0</v>
       </c>
-      <c r="X104" s="13">
+      <c r="X104" s="12">
         <v>203</v>
       </c>
       <c r="Y104" s="6">
@@ -28121,22 +28121,22 @@
       <c r="AA104" s="6">
         <v>0</v>
       </c>
-      <c r="AB104" s="13">
+      <c r="AB104" s="12">
         <v>203</v>
       </c>
-      <c r="AC104" s="13">
+      <c r="AC104" s="12">
         <v>203</v>
       </c>
       <c r="AD104" s="6">
         <v>0</v>
       </c>
-      <c r="AE104" s="13">
+      <c r="AE104" s="12">
         <v>203</v>
       </c>
-      <c r="AF104" s="13">
+      <c r="AF104" s="12">
         <v>203</v>
       </c>
-      <c r="AG104" s="13">
+      <c r="AG104" s="12">
         <v>203</v>
       </c>
       <c r="AH104" s="6">
@@ -28145,13 +28145,13 @@
       <c r="AI104" s="6">
         <v>0</v>
       </c>
-      <c r="AJ104" s="13">
+      <c r="AJ104" s="12">
         <v>203</v>
       </c>
-      <c r="AK104" s="13">
+      <c r="AK104" s="12">
         <v>203</v>
       </c>
-      <c r="AL104" s="13">
+      <c r="AL104" s="12">
         <v>203</v>
       </c>
       <c r="AM104" s="6">
@@ -28163,22 +28163,22 @@
       <c r="AO104" s="6">
         <v>0</v>
       </c>
-      <c r="AP104" s="13">
+      <c r="AP104" s="12">
         <v>203</v>
       </c>
-      <c r="AQ104" s="13">
+      <c r="AQ104" s="12">
         <v>202</v>
       </c>
-      <c r="AR104" s="13">
+      <c r="AR104" s="12">
         <v>203</v>
       </c>
-      <c r="AS104" s="13">
+      <c r="AS104" s="12">
         <v>203</v>
       </c>
-      <c r="AT104" s="13">
+      <c r="AT104" s="12">
         <v>203</v>
       </c>
-      <c r="AU104" s="13">
+      <c r="AU104" s="12">
         <v>203</v>
       </c>
       <c r="AV104" s="6">
@@ -28226,7 +28226,7 @@
       <c r="BJ104" s="6">
         <v>0</v>
       </c>
-      <c r="BK104" s="13">
+      <c r="BK104" s="12">
         <v>203</v>
       </c>
       <c r="BL104" s="6">
@@ -28256,19 +28256,19 @@
       <c r="BT104" s="6">
         <v>0</v>
       </c>
-      <c r="BU104" s="13">
+      <c r="BU104" s="12">
         <v>203</v>
       </c>
       <c r="BV104" s="6">
         <v>0</v>
       </c>
-      <c r="BW104" s="13">
+      <c r="BW104" s="12">
         <v>203</v>
       </c>
       <c r="BX104" s="6">
         <v>0</v>
       </c>
-      <c r="BY104" s="13">
+      <c r="BY104" s="12">
         <v>203</v>
       </c>
       <c r="BZ104" s="6">
@@ -28286,10 +28286,10 @@
       <c r="CD104" s="6">
         <v>0</v>
       </c>
-      <c r="CE104" s="13">
+      <c r="CE104" s="12">
         <v>203</v>
       </c>
-      <c r="CF104" s="13">
+      <c r="CF104" s="12">
         <v>203</v>
       </c>
       <c r="CG104" s="10">
@@ -28307,7 +28307,7 @@
       <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="12">
         <v>0</v>
       </c>
       <c r="C105" s="6">
@@ -28334,7 +28334,7 @@
       <c r="J105" s="6">
         <v>0</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="12">
         <v>205</v>
       </c>
       <c r="L105" s="6">
@@ -28349,7 +28349,7 @@
       <c r="O105" s="6">
         <v>0</v>
       </c>
-      <c r="P105" s="13">
+      <c r="P105" s="12">
         <v>205</v>
       </c>
       <c r="Q105" s="6">
@@ -28373,7 +28373,7 @@
       <c r="W105" s="6">
         <v>0</v>
       </c>
-      <c r="X105" s="13">
+      <c r="X105" s="12">
         <v>205</v>
       </c>
       <c r="Y105" s="6">
@@ -28385,22 +28385,22 @@
       <c r="AA105" s="6">
         <v>0</v>
       </c>
-      <c r="AB105" s="13">
+      <c r="AB105" s="12">
         <v>205</v>
       </c>
-      <c r="AC105" s="13">
+      <c r="AC105" s="12">
         <v>205</v>
       </c>
       <c r="AD105" s="6">
         <v>0</v>
       </c>
-      <c r="AE105" s="13">
+      <c r="AE105" s="12">
         <v>205</v>
       </c>
-      <c r="AF105" s="13">
+      <c r="AF105" s="12">
         <v>205</v>
       </c>
-      <c r="AG105" s="13">
+      <c r="AG105" s="12">
         <v>205</v>
       </c>
       <c r="AH105" s="6">
@@ -28409,13 +28409,13 @@
       <c r="AI105" s="6">
         <v>0</v>
       </c>
-      <c r="AJ105" s="13">
+      <c r="AJ105" s="12">
         <v>205</v>
       </c>
-      <c r="AK105" s="13">
+      <c r="AK105" s="12">
         <v>205</v>
       </c>
-      <c r="AL105" s="13">
+      <c r="AL105" s="12">
         <v>205</v>
       </c>
       <c r="AM105" s="6">
@@ -28427,22 +28427,22 @@
       <c r="AO105" s="6">
         <v>0</v>
       </c>
-      <c r="AP105" s="13">
+      <c r="AP105" s="12">
         <v>205</v>
       </c>
       <c r="AQ105" s="6">
         <v>0</v>
       </c>
-      <c r="AR105" s="13">
+      <c r="AR105" s="12">
         <v>204</v>
       </c>
-      <c r="AS105" s="13">
+      <c r="AS105" s="12">
         <v>205</v>
       </c>
-      <c r="AT105" s="13">
+      <c r="AT105" s="12">
         <v>205</v>
       </c>
-      <c r="AU105" s="13">
+      <c r="AU105" s="12">
         <v>205</v>
       </c>
       <c r="AV105" s="6">
@@ -28490,7 +28490,7 @@
       <c r="BJ105" s="6">
         <v>0</v>
       </c>
-      <c r="BK105" s="13">
+      <c r="BK105" s="12">
         <v>205</v>
       </c>
       <c r="BL105" s="6">
@@ -28520,19 +28520,19 @@
       <c r="BT105" s="6">
         <v>0</v>
       </c>
-      <c r="BU105" s="13">
+      <c r="BU105" s="12">
         <v>205</v>
       </c>
       <c r="BV105" s="6">
         <v>0</v>
       </c>
-      <c r="BW105" s="13">
+      <c r="BW105" s="12">
         <v>205</v>
       </c>
       <c r="BX105" s="6">
         <v>0</v>
       </c>
-      <c r="BY105" s="13">
+      <c r="BY105" s="12">
         <v>205</v>
       </c>
       <c r="BZ105" s="6">
@@ -28550,10 +28550,10 @@
       <c r="CD105" s="6">
         <v>0</v>
       </c>
-      <c r="CE105" s="13">
+      <c r="CE105" s="12">
         <v>205</v>
       </c>
-      <c r="CF105" s="13">
+      <c r="CF105" s="12">
         <v>205</v>
       </c>
       <c r="CG105" s="10">
@@ -28571,7 +28571,7 @@
       <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="12">
         <v>0</v>
       </c>
       <c r="C106" s="6">
@@ -28724,7 +28724,7 @@
       <c r="AZ106" s="6">
         <v>0</v>
       </c>
-      <c r="BA106" s="13">
+      <c r="BA106" s="12">
         <v>206</v>
       </c>
       <c r="BB106" s="6">
@@ -28748,7 +28748,7 @@
       <c r="BH106" s="6">
         <v>0</v>
       </c>
-      <c r="BI106" s="13">
+      <c r="BI106" s="12">
         <v>207</v>
       </c>
       <c r="BJ106" s="6">
@@ -28835,7 +28835,7 @@
       <c r="A107" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="12">
         <v>0</v>
       </c>
       <c r="C107" s="7">
@@ -29099,13 +29099,13 @@
       <c r="A108" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="12">
         <v>259</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="12">
         <v>259</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="12">
         <v>259</v>
       </c>
       <c r="E108" s="6">
@@ -29117,7 +29117,7 @@
       <c r="G108" s="6">
         <v>0</v>
       </c>
-      <c r="H108" s="13">
+      <c r="H108" s="12">
         <v>259</v>
       </c>
       <c r="I108" s="6">
@@ -29129,10 +29129,10 @@
       <c r="K108" s="6">
         <v>0</v>
       </c>
-      <c r="L108" s="13">
+      <c r="L108" s="12">
         <v>259</v>
       </c>
-      <c r="M108" s="13">
+      <c r="M108" s="12">
         <v>259</v>
       </c>
       <c r="N108" s="6">
@@ -29216,7 +29216,7 @@
       <c r="AN108" s="6">
         <v>0</v>
       </c>
-      <c r="AO108" s="13">
+      <c r="AO108" s="12">
         <v>259</v>
       </c>
       <c r="AP108" s="6">
@@ -29228,31 +29228,31 @@
       <c r="AR108" s="6">
         <v>0</v>
       </c>
-      <c r="AS108" s="13">
+      <c r="AS108" s="12">
         <v>259</v>
       </c>
-      <c r="AT108" s="13">
+      <c r="AT108" s="12">
         <v>259</v>
       </c>
-      <c r="AU108" s="13">
+      <c r="AU108" s="12">
         <v>259</v>
       </c>
       <c r="AV108" s="6">
         <v>0</v>
       </c>
-      <c r="AW108" s="13">
+      <c r="AW108" s="12">
         <v>257</v>
       </c>
-      <c r="AX108" s="13">
+      <c r="AX108" s="12">
         <v>213</v>
       </c>
-      <c r="AY108" s="13">
+      <c r="AY108" s="12">
         <v>259</v>
       </c>
-      <c r="AZ108" s="13">
+      <c r="AZ108" s="12">
         <v>259</v>
       </c>
-      <c r="BA108" s="13">
+      <c r="BA108" s="12">
         <v>258</v>
       </c>
       <c r="BB108" s="6">
@@ -29261,28 +29261,28 @@
       <c r="BC108" s="6">
         <v>0</v>
       </c>
-      <c r="BD108" s="13">
+      <c r="BD108" s="12">
         <v>259</v>
       </c>
       <c r="BE108" s="6">
         <v>0</v>
       </c>
-      <c r="BF108" s="13">
+      <c r="BF108" s="12">
         <v>259</v>
       </c>
-      <c r="BG108" s="13">
+      <c r="BG108" s="12">
         <v>259</v>
       </c>
       <c r="BH108" s="6">
         <v>0</v>
       </c>
-      <c r="BI108" s="13">
+      <c r="BI108" s="12">
         <v>259</v>
       </c>
       <c r="BJ108" s="6">
         <v>0</v>
       </c>
-      <c r="BK108" s="13">
+      <c r="BK108" s="12">
         <v>259</v>
       </c>
       <c r="BL108" s="6">
@@ -29294,7 +29294,7 @@
       <c r="BN108" s="6">
         <v>0</v>
       </c>
-      <c r="BO108" s="13">
+      <c r="BO108" s="12">
         <v>259</v>
       </c>
       <c r="BP108" s="6">
@@ -29312,7 +29312,7 @@
       <c r="BT108" s="6">
         <v>0</v>
       </c>
-      <c r="BU108" s="13">
+      <c r="BU108" s="12">
         <v>259</v>
       </c>
       <c r="BV108" s="6">
@@ -29342,10 +29342,10 @@
       <c r="CD108" s="6">
         <v>0</v>
       </c>
-      <c r="CE108" s="13">
+      <c r="CE108" s="12">
         <v>259</v>
       </c>
-      <c r="CF108" s="13">
+      <c r="CF108" s="12">
         <v>259</v>
       </c>
       <c r="CG108" s="10">
@@ -29363,7 +29363,7 @@
       <c r="A109" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="12">
         <v>0</v>
       </c>
       <c r="C109" s="6">
@@ -29429,10 +29429,10 @@
       <c r="W109" s="6">
         <v>0</v>
       </c>
-      <c r="X109" s="13">
+      <c r="X109" s="12">
         <v>214</v>
       </c>
-      <c r="Y109" s="13">
+      <c r="Y109" s="12">
         <v>219</v>
       </c>
       <c r="Z109" s="6">
@@ -29504,10 +29504,10 @@
       <c r="AV109" s="6">
         <v>0</v>
       </c>
-      <c r="AW109" s="13">
+      <c r="AW109" s="12">
         <v>216</v>
       </c>
-      <c r="AX109" s="13">
+      <c r="AX109" s="12">
         <v>220</v>
       </c>
       <c r="AY109" s="6">
@@ -29528,7 +29528,7 @@
       <c r="BD109" s="6">
         <v>0</v>
       </c>
-      <c r="BE109" s="13">
+      <c r="BE109" s="12">
         <v>221</v>
       </c>
       <c r="BF109" s="6">
@@ -29555,7 +29555,7 @@
       <c r="BM109" s="6">
         <v>0</v>
       </c>
-      <c r="BN109" s="13">
+      <c r="BN109" s="12">
         <v>222</v>
       </c>
       <c r="BO109" s="6">
@@ -29576,31 +29576,31 @@
       <c r="BT109" s="6">
         <v>0</v>
       </c>
-      <c r="BU109" s="13">
+      <c r="BU109" s="12">
         <v>214</v>
       </c>
-      <c r="BV109" s="13">
+      <c r="BV109" s="12">
         <v>214</v>
       </c>
-      <c r="BW109" s="13">
+      <c r="BW109" s="12">
         <v>214</v>
       </c>
-      <c r="BX109" s="13">
+      <c r="BX109" s="12">
         <v>214</v>
       </c>
-      <c r="BY109" s="13">
+      <c r="BY109" s="12">
         <v>214</v>
       </c>
-      <c r="BZ109" s="13">
+      <c r="BZ109" s="12">
         <v>215</v>
       </c>
-      <c r="CA109" s="13">
+      <c r="CA109" s="12">
         <v>215</v>
       </c>
-      <c r="CB109" s="13">
+      <c r="CB109" s="12">
         <v>217</v>
       </c>
-      <c r="CC109" s="13">
+      <c r="CC109" s="12">
         <v>218</v>
       </c>
       <c r="CD109" s="6">
@@ -29627,7 +29627,7 @@
       <c r="A110" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="12">
         <v>0</v>
       </c>
       <c r="C110" s="7">
@@ -29891,7 +29891,7 @@
       <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="12">
         <v>0</v>
       </c>
       <c r="C111" s="7">
@@ -30155,7 +30155,7 @@
       <c r="A112" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="12">
         <v>0</v>
       </c>
       <c r="C112" s="6">
@@ -30302,10 +30302,10 @@
       <c r="AX112" s="6">
         <v>0</v>
       </c>
-      <c r="AY112" s="13">
+      <c r="AY112" s="12">
         <v>228</v>
       </c>
-      <c r="AZ112" s="13">
+      <c r="AZ112" s="12">
         <v>229</v>
       </c>
       <c r="BA112" s="6">
@@ -30419,7 +30419,7 @@
       <c r="A113" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="12">
         <v>0</v>
       </c>
       <c r="C113" s="6">
@@ -30569,7 +30569,7 @@
       <c r="AY113" s="6">
         <v>0</v>
       </c>
-      <c r="AZ113" s="13">
+      <c r="AZ113" s="12">
         <v>230</v>
       </c>
       <c r="BA113" s="6">
@@ -30683,13 +30683,13 @@
       <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114" s="12">
         <v>232</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="12">
         <v>232</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="12">
         <v>232</v>
       </c>
       <c r="E114" s="6">
@@ -30701,7 +30701,7 @@
       <c r="G114" s="6">
         <v>0</v>
       </c>
-      <c r="H114" s="13">
+      <c r="H114" s="12">
         <v>232</v>
       </c>
       <c r="I114" s="6">
@@ -30713,10 +30713,10 @@
       <c r="K114" s="6">
         <v>0</v>
       </c>
-      <c r="L114" s="13">
+      <c r="L114" s="12">
         <v>232</v>
       </c>
-      <c r="M114" s="13">
+      <c r="M114" s="12">
         <v>232</v>
       </c>
       <c r="N114" s="6">
@@ -30800,7 +30800,7 @@
       <c r="AN114" s="6">
         <v>0</v>
       </c>
-      <c r="AO114" s="13">
+      <c r="AO114" s="12">
         <v>232</v>
       </c>
       <c r="AP114" s="6">
@@ -30812,13 +30812,13 @@
       <c r="AR114" s="6">
         <v>0</v>
       </c>
-      <c r="AS114" s="13">
+      <c r="AS114" s="12">
         <v>232</v>
       </c>
-      <c r="AT114" s="13">
+      <c r="AT114" s="12">
         <v>232</v>
       </c>
-      <c r="AU114" s="13">
+      <c r="AU114" s="12">
         <v>232</v>
       </c>
       <c r="AV114" s="6">
@@ -30830,10 +30830,10 @@
       <c r="AX114" s="6">
         <v>0</v>
       </c>
-      <c r="AY114" s="13">
+      <c r="AY114" s="12">
         <v>232</v>
       </c>
-      <c r="AZ114" s="13">
+      <c r="AZ114" s="12">
         <v>232</v>
       </c>
       <c r="BA114" s="6">
@@ -30845,28 +30845,28 @@
       <c r="BC114" s="6">
         <v>0</v>
       </c>
-      <c r="BD114" s="14">
+      <c r="BD114" s="13">
         <v>231</v>
       </c>
       <c r="BE114" s="6">
         <v>0</v>
       </c>
-      <c r="BF114" s="13">
+      <c r="BF114" s="12">
         <v>232</v>
       </c>
-      <c r="BG114" s="13">
+      <c r="BG114" s="12">
         <v>232</v>
       </c>
       <c r="BH114" s="6">
         <v>0</v>
       </c>
-      <c r="BI114" s="13">
+      <c r="BI114" s="12">
         <v>232</v>
       </c>
       <c r="BJ114" s="6">
         <v>0</v>
       </c>
-      <c r="BK114" s="13">
+      <c r="BK114" s="12">
         <v>232</v>
       </c>
       <c r="BL114" s="6">
@@ -30878,7 +30878,7 @@
       <c r="BN114" s="6">
         <v>0</v>
       </c>
-      <c r="BO114" s="13">
+      <c r="BO114" s="12">
         <v>232</v>
       </c>
       <c r="BP114" s="6">
@@ -30896,7 +30896,7 @@
       <c r="BT114" s="6">
         <v>0</v>
       </c>
-      <c r="BU114" s="13">
+      <c r="BU114" s="12">
         <v>232</v>
       </c>
       <c r="BV114" s="6">
@@ -30926,10 +30926,10 @@
       <c r="CD114" s="6">
         <v>0</v>
       </c>
-      <c r="CE114" s="13">
+      <c r="CE114" s="12">
         <v>232</v>
       </c>
-      <c r="CF114" s="13">
+      <c r="CF114" s="12">
         <v>232</v>
       </c>
       <c r="CG114" s="10">
@@ -31013,10 +31013,10 @@
       <c r="W115" s="6">
         <v>0</v>
       </c>
-      <c r="X115" s="13">
+      <c r="X115" s="12">
         <v>233</v>
       </c>
-      <c r="Y115" s="13">
+      <c r="Y115" s="12">
         <v>238</v>
       </c>
       <c r="Z115" s="6">
@@ -31058,10 +31058,10 @@
       <c r="AL115" s="6">
         <v>0</v>
       </c>
-      <c r="AM115" s="13">
+      <c r="AM115" s="12">
         <v>261</v>
       </c>
-      <c r="AN115" s="13">
+      <c r="AN115" s="12">
         <v>262</v>
       </c>
       <c r="AO115" s="6">
@@ -31082,13 +31082,13 @@
       <c r="AT115" s="6">
         <v>0</v>
       </c>
-      <c r="AU115" s="13">
+      <c r="AU115" s="12">
         <v>239</v>
       </c>
       <c r="AV115" s="6">
         <v>0</v>
       </c>
-      <c r="AW115" s="13">
+      <c r="AW115" s="12">
         <v>235</v>
       </c>
       <c r="AX115" s="6">
@@ -31112,7 +31112,7 @@
       <c r="BD115" s="6">
         <v>0</v>
       </c>
-      <c r="BE115" s="13">
+      <c r="BE115" s="12">
         <v>240</v>
       </c>
       <c r="BF115" s="6">
@@ -31139,7 +31139,7 @@
       <c r="BM115" s="6">
         <v>0</v>
       </c>
-      <c r="BN115" s="13">
+      <c r="BN115" s="12">
         <v>241</v>
       </c>
       <c r="BO115" s="6">
@@ -31160,31 +31160,31 @@
       <c r="BT115" s="6">
         <v>0</v>
       </c>
-      <c r="BU115" s="13">
+      <c r="BU115" s="12">
         <v>233</v>
       </c>
-      <c r="BV115" s="13">
+      <c r="BV115" s="12">
         <v>233</v>
       </c>
-      <c r="BW115" s="13">
+      <c r="BW115" s="12">
         <v>233</v>
       </c>
-      <c r="BX115" s="13">
+      <c r="BX115" s="12">
         <v>233</v>
       </c>
-      <c r="BY115" s="13">
+      <c r="BY115" s="12">
         <v>233</v>
       </c>
-      <c r="BZ115" s="13">
+      <c r="BZ115" s="12">
         <v>234</v>
       </c>
-      <c r="CA115" s="13">
+      <c r="CA115" s="12">
         <v>234</v>
       </c>
-      <c r="CB115" s="13">
+      <c r="CB115" s="12">
         <v>236</v>
       </c>
-      <c r="CC115" s="13">
+      <c r="CC115" s="12">
         <v>237</v>
       </c>
       <c r="CD115" s="6">
@@ -31211,31 +31211,31 @@
       <c r="A116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="13">
-        <v>0</v>
-      </c>
-      <c r="C116" s="13">
-        <v>0</v>
-      </c>
-      <c r="D116" s="13">
-        <v>0</v>
-      </c>
-      <c r="E116" s="13">
-        <v>0</v>
-      </c>
-      <c r="F116" s="13">
-        <v>0</v>
-      </c>
-      <c r="G116" s="13">
-        <v>0</v>
-      </c>
-      <c r="H116" s="13">
-        <v>0</v>
-      </c>
-      <c r="I116" s="13">
-        <v>0</v>
-      </c>
-      <c r="J116" s="13">
+      <c r="B116" s="12">
+        <v>0</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
+      <c r="H116" s="12">
+        <v>0</v>
+      </c>
+      <c r="I116" s="12">
+        <v>0</v>
+      </c>
+      <c r="J116" s="12">
         <v>0</v>
       </c>
       <c r="K116" s="7">
@@ -31430,31 +31430,31 @@
       <c r="BV116" s="7">
         <v>0</v>
       </c>
-      <c r="BW116" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX116" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY116" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ116" s="13">
-        <v>0</v>
-      </c>
-      <c r="CA116" s="13">
-        <v>0</v>
-      </c>
-      <c r="CB116" s="13">
-        <v>0</v>
-      </c>
-      <c r="CC116" s="13">
-        <v>0</v>
-      </c>
-      <c r="CD116" s="13">
-        <v>0</v>
-      </c>
-      <c r="CE116" s="13">
+      <c r="BW116" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX116" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY116" s="12">
+        <v>0</v>
+      </c>
+      <c r="BZ116" s="12">
+        <v>0</v>
+      </c>
+      <c r="CA116" s="12">
+        <v>0</v>
+      </c>
+      <c r="CB116" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC116" s="12">
+        <v>0</v>
+      </c>
+      <c r="CD116" s="12">
+        <v>0</v>
+      </c>
+      <c r="CE116" s="12">
         <v>0</v>
       </c>
       <c r="CF116" s="7">
@@ -31691,31 +31691,31 @@
       <c r="BU117" s="10">
         <v>260</v>
       </c>
-      <c r="BV117" s="13">
-        <v>0</v>
-      </c>
-      <c r="BW117" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX117" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY117" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ117" s="13">
-        <v>0</v>
-      </c>
-      <c r="CA117" s="13">
-        <v>0</v>
-      </c>
-      <c r="CB117" s="13">
-        <v>0</v>
-      </c>
-      <c r="CC117" s="13">
-        <v>0</v>
-      </c>
-      <c r="CD117" s="13">
+      <c r="BV117" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW117" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX117" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY117" s="12">
+        <v>0</v>
+      </c>
+      <c r="BZ117" s="12">
+        <v>0</v>
+      </c>
+      <c r="CA117" s="12">
+        <v>0</v>
+      </c>
+      <c r="CB117" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC117" s="12">
+        <v>0</v>
+      </c>
+      <c r="CD117" s="12">
         <v>0</v>
       </c>
       <c r="CE117" s="10">
@@ -31739,13 +31739,13 @@
       <c r="A118" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="12">
         <v>251</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="12">
         <v>251</v>
       </c>
-      <c r="D118" s="13">
+      <c r="D118" s="12">
         <v>251</v>
       </c>
       <c r="E118" s="6">
@@ -31757,7 +31757,7 @@
       <c r="G118" s="6">
         <v>0</v>
       </c>
-      <c r="H118" s="13">
+      <c r="H118" s="12">
         <v>251</v>
       </c>
       <c r="I118" s="6">
@@ -31769,10 +31769,10 @@
       <c r="K118" s="6">
         <v>0</v>
       </c>
-      <c r="L118" s="13">
+      <c r="L118" s="12">
         <v>251</v>
       </c>
-      <c r="M118" s="13">
+      <c r="M118" s="12">
         <v>251</v>
       </c>
       <c r="N118" s="6">
@@ -31856,7 +31856,7 @@
       <c r="AN118" s="6">
         <v>0</v>
       </c>
-      <c r="AO118" s="13">
+      <c r="AO118" s="12">
         <v>251</v>
       </c>
       <c r="AP118" s="6">
@@ -31868,13 +31868,13 @@
       <c r="AR118" s="6">
         <v>0</v>
       </c>
-      <c r="AS118" s="13">
+      <c r="AS118" s="12">
         <v>251</v>
       </c>
-      <c r="AT118" s="13">
+      <c r="AT118" s="12">
         <v>251</v>
       </c>
-      <c r="AU118" s="13">
+      <c r="AU118" s="12">
         <v>251</v>
       </c>
       <c r="AV118" s="6">
@@ -31886,10 +31886,10 @@
       <c r="AX118" s="6">
         <v>0</v>
       </c>
-      <c r="AY118" s="13">
+      <c r="AY118" s="12">
         <v>249</v>
       </c>
-      <c r="AZ118" s="13">
+      <c r="AZ118" s="12">
         <v>250</v>
       </c>
       <c r="BA118" s="6">
@@ -31901,28 +31901,28 @@
       <c r="BC118" s="6">
         <v>0</v>
       </c>
-      <c r="BD118" s="13">
+      <c r="BD118" s="12">
         <v>251</v>
       </c>
       <c r="BE118" s="6">
         <v>0</v>
       </c>
-      <c r="BF118" s="13">
+      <c r="BF118" s="12">
         <v>251</v>
       </c>
-      <c r="BG118" s="13">
+      <c r="BG118" s="12">
         <v>251</v>
       </c>
       <c r="BH118" s="6">
         <v>0</v>
       </c>
-      <c r="BI118" s="13">
+      <c r="BI118" s="12">
         <v>251</v>
       </c>
       <c r="BJ118" s="6">
         <v>0</v>
       </c>
-      <c r="BK118" s="13">
+      <c r="BK118" s="12">
         <v>251</v>
       </c>
       <c r="BL118" s="6">
@@ -31934,7 +31934,7 @@
       <c r="BN118" s="6">
         <v>0</v>
       </c>
-      <c r="BO118" s="13">
+      <c r="BO118" s="12">
         <v>251</v>
       </c>
       <c r="BP118" s="6">
@@ -31952,40 +31952,40 @@
       <c r="BT118" s="6">
         <v>0</v>
       </c>
-      <c r="BU118" s="13">
+      <c r="BU118" s="12">
         <v>251</v>
       </c>
-      <c r="BV118" s="13">
-        <v>0</v>
-      </c>
-      <c r="BW118" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX118" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY118" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ118" s="13">
-        <v>0</v>
-      </c>
-      <c r="CA118" s="13">
-        <v>0</v>
-      </c>
-      <c r="CB118" s="13">
-        <v>0</v>
-      </c>
-      <c r="CC118" s="13">
-        <v>0</v>
-      </c>
-      <c r="CD118" s="13">
-        <v>0</v>
-      </c>
-      <c r="CE118" s="13">
+      <c r="BV118" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW118" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX118" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY118" s="12">
+        <v>0</v>
+      </c>
+      <c r="BZ118" s="12">
+        <v>0</v>
+      </c>
+      <c r="CA118" s="12">
+        <v>0</v>
+      </c>
+      <c r="CB118" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC118" s="12">
+        <v>0</v>
+      </c>
+      <c r="CD118" s="12">
+        <v>0</v>
+      </c>
+      <c r="CE118" s="12">
         <v>251</v>
       </c>
-      <c r="CF118" s="13">
+      <c r="CF118" s="12">
         <v>251</v>
       </c>
       <c r="CG118" s="10">
@@ -32003,13 +32003,13 @@
       <c r="A119" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="12">
         <v>253</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="12">
         <v>253</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="12">
         <v>253</v>
       </c>
       <c r="E119" s="6">
@@ -32021,7 +32021,7 @@
       <c r="G119" s="6">
         <v>0</v>
       </c>
-      <c r="H119" s="13">
+      <c r="H119" s="12">
         <v>253</v>
       </c>
       <c r="I119" s="6">
@@ -32033,10 +32033,10 @@
       <c r="K119" s="6">
         <v>0</v>
       </c>
-      <c r="L119" s="13">
+      <c r="L119" s="12">
         <v>253</v>
       </c>
-      <c r="M119" s="13">
+      <c r="M119" s="12">
         <v>253</v>
       </c>
       <c r="N119" s="6">
@@ -32120,7 +32120,7 @@
       <c r="AN119" s="6">
         <v>0</v>
       </c>
-      <c r="AO119" s="13">
+      <c r="AO119" s="12">
         <v>253</v>
       </c>
       <c r="AP119" s="6">
@@ -32132,13 +32132,13 @@
       <c r="AR119" s="6">
         <v>0</v>
       </c>
-      <c r="AS119" s="13">
+      <c r="AS119" s="12">
         <v>253</v>
       </c>
-      <c r="AT119" s="13">
+      <c r="AT119" s="12">
         <v>253</v>
       </c>
-      <c r="AU119" s="13">
+      <c r="AU119" s="12">
         <v>253</v>
       </c>
       <c r="AV119" s="6">
@@ -32150,10 +32150,10 @@
       <c r="AX119" s="6">
         <v>0</v>
       </c>
-      <c r="AY119" s="13">
+      <c r="AY119" s="12">
         <v>253</v>
       </c>
-      <c r="AZ119" s="13">
+      <c r="AZ119" s="12">
         <v>252</v>
       </c>
       <c r="BA119" s="6">
@@ -32165,28 +32165,28 @@
       <c r="BC119" s="6">
         <v>0</v>
       </c>
-      <c r="BD119" s="13">
+      <c r="BD119" s="12">
         <v>253</v>
       </c>
       <c r="BE119" s="6">
         <v>0</v>
       </c>
-      <c r="BF119" s="13">
+      <c r="BF119" s="12">
         <v>253</v>
       </c>
-      <c r="BG119" s="13">
+      <c r="BG119" s="12">
         <v>253</v>
       </c>
       <c r="BH119" s="6">
         <v>0</v>
       </c>
-      <c r="BI119" s="13">
+      <c r="BI119" s="12">
         <v>253</v>
       </c>
       <c r="BJ119" s="6">
         <v>0</v>
       </c>
-      <c r="BK119" s="13">
+      <c r="BK119" s="12">
         <v>253</v>
       </c>
       <c r="BL119" s="6">
@@ -32198,7 +32198,7 @@
       <c r="BN119" s="6">
         <v>0</v>
       </c>
-      <c r="BO119" s="13">
+      <c r="BO119" s="12">
         <v>253</v>
       </c>
       <c r="BP119" s="6">
@@ -32216,40 +32216,40 @@
       <c r="BT119" s="6">
         <v>0</v>
       </c>
-      <c r="BU119" s="13">
+      <c r="BU119" s="12">
         <v>253</v>
       </c>
-      <c r="BV119" s="13">
-        <v>0</v>
-      </c>
-      <c r="BW119" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX119" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY119" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ119" s="13">
-        <v>0</v>
-      </c>
-      <c r="CA119" s="13">
-        <v>0</v>
-      </c>
-      <c r="CB119" s="13">
-        <v>0</v>
-      </c>
-      <c r="CC119" s="13">
-        <v>0</v>
-      </c>
-      <c r="CD119" s="13">
-        <v>0</v>
-      </c>
-      <c r="CE119" s="13">
+      <c r="BV119" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW119" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX119" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY119" s="12">
+        <v>0</v>
+      </c>
+      <c r="BZ119" s="12">
+        <v>0</v>
+      </c>
+      <c r="CA119" s="12">
+        <v>0</v>
+      </c>
+      <c r="CB119" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC119" s="12">
+        <v>0</v>
+      </c>
+      <c r="CD119" s="12">
+        <v>0</v>
+      </c>
+      <c r="CE119" s="12">
         <v>253</v>
       </c>
-      <c r="CF119" s="13">
+      <c r="CF119" s="12">
         <v>253</v>
       </c>
       <c r="CG119" s="10">
@@ -32267,124 +32267,124 @@
       <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="12">
         <v>255</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="12">
         <v>255</v>
       </c>
-      <c r="D120" s="13">
+      <c r="D120" s="12">
         <v>255</v>
       </c>
-      <c r="E120" s="13">
-        <v>0</v>
-      </c>
-      <c r="F120" s="13">
-        <v>0</v>
-      </c>
-      <c r="G120" s="13">
-        <v>0</v>
-      </c>
-      <c r="H120" s="13">
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="F120" s="12">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12">
         <v>255</v>
       </c>
-      <c r="I120" s="13">
-        <v>0</v>
-      </c>
-      <c r="J120" s="13">
-        <v>0</v>
-      </c>
-      <c r="K120" s="13">
-        <v>0</v>
-      </c>
-      <c r="L120" s="13">
+      <c r="I120" s="12">
+        <v>0</v>
+      </c>
+      <c r="J120" s="12">
+        <v>0</v>
+      </c>
+      <c r="K120" s="12">
+        <v>0</v>
+      </c>
+      <c r="L120" s="12">
         <v>255</v>
       </c>
-      <c r="M120" s="13">
+      <c r="M120" s="12">
         <v>255</v>
       </c>
-      <c r="N120" s="13">
-        <v>0</v>
-      </c>
-      <c r="O120" s="13">
-        <v>0</v>
-      </c>
-      <c r="P120" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="13">
-        <v>0</v>
-      </c>
-      <c r="R120" s="13">
-        <v>0</v>
-      </c>
-      <c r="S120" s="13">
-        <v>0</v>
-      </c>
-      <c r="T120" s="13">
-        <v>0</v>
-      </c>
-      <c r="U120" s="13">
-        <v>0</v>
-      </c>
-      <c r="V120" s="13">
-        <v>0</v>
-      </c>
-      <c r="W120" s="13">
-        <v>0</v>
-      </c>
-      <c r="X120" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y120" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO120" s="13">
+      <c r="N120" s="12">
+        <v>0</v>
+      </c>
+      <c r="O120" s="12">
+        <v>0</v>
+      </c>
+      <c r="P120" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="12">
+        <v>0</v>
+      </c>
+      <c r="R120" s="12">
+        <v>0</v>
+      </c>
+      <c r="S120" s="12">
+        <v>0</v>
+      </c>
+      <c r="T120" s="12">
+        <v>0</v>
+      </c>
+      <c r="U120" s="12">
+        <v>0</v>
+      </c>
+      <c r="V120" s="12">
+        <v>0</v>
+      </c>
+      <c r="W120" s="12">
+        <v>0</v>
+      </c>
+      <c r="X120" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO120" s="12">
         <v>255</v>
       </c>
       <c r="AP120" s="6">
@@ -32396,13 +32396,13 @@
       <c r="AR120" s="6">
         <v>0</v>
       </c>
-      <c r="AS120" s="13">
+      <c r="AS120" s="12">
         <v>255</v>
       </c>
-      <c r="AT120" s="13">
+      <c r="AT120" s="12">
         <v>255</v>
       </c>
-      <c r="AU120" s="13">
+      <c r="AU120" s="12">
         <v>255</v>
       </c>
       <c r="AV120" s="6">
@@ -32414,10 +32414,10 @@
       <c r="AX120" s="6">
         <v>0</v>
       </c>
-      <c r="AY120" s="13">
+      <c r="AY120" s="12">
         <v>255</v>
       </c>
-      <c r="AZ120" s="13">
+      <c r="AZ120" s="12">
         <v>255</v>
       </c>
       <c r="BA120" s="6">
@@ -32429,28 +32429,28 @@
       <c r="BC120" s="6">
         <v>0</v>
       </c>
-      <c r="BD120" s="13">
+      <c r="BD120" s="12">
         <v>254</v>
       </c>
       <c r="BE120" s="6">
         <v>0</v>
       </c>
-      <c r="BF120" s="13">
+      <c r="BF120" s="12">
         <v>255</v>
       </c>
-      <c r="BG120" s="13">
+      <c r="BG120" s="12">
         <v>255</v>
       </c>
       <c r="BH120" s="6">
         <v>0</v>
       </c>
-      <c r="BI120" s="13">
+      <c r="BI120" s="12">
         <v>255</v>
       </c>
       <c r="BJ120" s="6">
         <v>0</v>
       </c>
-      <c r="BK120" s="13">
+      <c r="BK120" s="12">
         <v>255</v>
       </c>
       <c r="BL120" s="6">
@@ -32462,7 +32462,7 @@
       <c r="BN120" s="6">
         <v>0</v>
       </c>
-      <c r="BO120" s="13">
+      <c r="BO120" s="12">
         <v>255</v>
       </c>
       <c r="BP120" s="6">
@@ -32480,40 +32480,40 @@
       <c r="BT120" s="6">
         <v>0</v>
       </c>
-      <c r="BU120" s="13">
+      <c r="BU120" s="12">
         <v>255</v>
       </c>
-      <c r="BV120" s="13">
-        <v>0</v>
-      </c>
-      <c r="BW120" s="13">
-        <v>0</v>
-      </c>
-      <c r="BX120" s="13">
-        <v>0</v>
-      </c>
-      <c r="BY120" s="13">
-        <v>0</v>
-      </c>
-      <c r="BZ120" s="13">
-        <v>0</v>
-      </c>
-      <c r="CA120" s="13">
-        <v>0</v>
-      </c>
-      <c r="CB120" s="13">
-        <v>0</v>
-      </c>
-      <c r="CC120" s="13">
-        <v>0</v>
-      </c>
-      <c r="CD120" s="13">
-        <v>0</v>
-      </c>
-      <c r="CE120" s="13">
+      <c r="BV120" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW120" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX120" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY120" s="12">
+        <v>0</v>
+      </c>
+      <c r="BZ120" s="12">
+        <v>0</v>
+      </c>
+      <c r="CA120" s="12">
+        <v>0</v>
+      </c>
+      <c r="CB120" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC120" s="12">
+        <v>0</v>
+      </c>
+      <c r="CD120" s="12">
+        <v>0</v>
+      </c>
+      <c r="CE120" s="12">
         <v>255</v>
       </c>
-      <c r="CF120" s="13">
+      <c r="CF120" s="12">
         <v>255</v>
       </c>
       <c r="CG120" s="10">
@@ -32792,15 +32792,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8297B1F9084F346B69E2C897C07EDF5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02434e8a07a709289c4bff34b43edbc0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38493f2c-75c3-4eda-bd7e-b1289f87ac22" xmlns:ns4="8d622b19-33c5-45fd-8838-b7a4bba5caad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e74bec05e75104cafe7a77ea3eaf635" ns3:_="" ns4:_="">
     <xsd:import namespace="38493f2c-75c3-4eda-bd7e-b1289f87ac22"/>
@@ -33017,6 +33008,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -33024,14 +33024,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024B8F3A-8B0A-453D-B8D4-B07A028D6BC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9ACBCA-23EC-4DDF-B782-DBF637EF338B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33050,6 +33042,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024B8F3A-8B0A-453D-B8D4-B07A028D6BC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09F71C4-1038-47FB-A486-A3D57E27E01E}">
   <ds:schemaRefs>
